--- a/doc/presupuesto_final.xlsx
+++ b/doc/presupuesto_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valyd\Desktop\Github_Repos\TFG---OpenGL-Engine\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A236FB-D8A0-4C1D-85C6-B54D7B7DF72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E035153D-E762-4A57-829C-18F146628B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24285" yWindow="1245" windowWidth="22380" windowHeight="15885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Empresa" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="232">
   <si>
     <t>Personal</t>
   </si>
@@ -340,9 +340,6 @@
     <t>Llevar a cabo pruebas</t>
   </si>
   <si>
-    <t>Desarrollar el Videojuego</t>
-  </si>
-  <si>
     <t>Crear la arquitectura ECS</t>
   </si>
   <si>
@@ -418,24 +415,9 @@
     <t>Desarrollar Pruebas para el núcelo</t>
   </si>
   <si>
-    <t>Realizar Pruebas de usabilidad</t>
-  </si>
-  <si>
-    <t>Desarrollar Pruebas gráficas</t>
-  </si>
-  <si>
-    <t>Desarrollar Pruebas de benchmarking</t>
-  </si>
-  <si>
     <t>Desarrollar generación de terreno</t>
   </si>
   <si>
-    <t>Desarrollar entidades</t>
-  </si>
-  <si>
-    <t>Desarrollar shaders</t>
-  </si>
-  <si>
     <t>l4</t>
   </si>
   <si>
@@ -460,9 +442,6 @@
     <t>Hacer introducción</t>
   </si>
   <si>
-    <t>Hacer jusitificación de proyecto</t>
-  </si>
-  <si>
     <t>Hacer objetivos del proyecto</t>
   </si>
   <si>
@@ -493,9 +472,6 @@
     <t>Planificar arranque del proyecto</t>
   </si>
   <si>
-    <t>Planificar desarrollo software</t>
-  </si>
-  <si>
     <t>Resumir presupuesto</t>
   </si>
   <si>
@@ -562,15 +538,6 @@
     <t>Planificar pruebas unitarias</t>
   </si>
   <si>
-    <t>Planificar pruebas gráficas</t>
-  </si>
-  <si>
-    <t>Planificar pruebas de usabilidad</t>
-  </si>
-  <si>
-    <t>Planificar pruebas de benchmarking</t>
-  </si>
-  <si>
     <t>Diseñar el sistema</t>
   </si>
   <si>
@@ -595,15 +562,6 @@
     <t>Crear manual del sistema</t>
   </si>
   <si>
-    <t>Describir desarrollo de pruebas de benchmarking</t>
-  </si>
-  <si>
-    <t>Describir desarrollo de pruebas de usabilidad</t>
-  </si>
-  <si>
-    <t>Describir desarrollo de pruebas gráficas</t>
-  </si>
-  <si>
     <t>Describir desarrollo de pruebas unitarias</t>
   </si>
   <si>
@@ -643,12 +601,6 @@
     <t>Describir la implementación del sistema</t>
   </si>
   <si>
-    <t>Especificar pruebas de benchmarking</t>
-  </si>
-  <si>
-    <t>Especificar pruebas de usabilidad</t>
-  </si>
-  <si>
     <t>Desarrollar aspectos teóricos</t>
   </si>
   <si>
@@ -673,9 +625,6 @@
     <t>Especificar pruebas unitarias</t>
   </si>
   <si>
-    <t>Especificar pruebas gráficas</t>
-  </si>
-  <si>
     <t>Detallar uso de herramientas en el arranque del proyecto</t>
   </si>
   <si>
@@ -755,6 +704,39 @@
   </si>
   <si>
     <t>Desarrollar el videojuego</t>
+  </si>
+  <si>
+    <t>Desarrollar los videojuegos</t>
+  </si>
+  <si>
+    <t>Desarrollar juego shoot the chicken</t>
+  </si>
+  <si>
+    <t>Desarrollar juego por defecto</t>
+  </si>
+  <si>
+    <t>Planificar seguimiento</t>
+  </si>
+  <si>
+    <t>Planificar cierre</t>
+  </si>
+  <si>
+    <t>Hacer justificación de proyecto</t>
+  </si>
+  <si>
+    <t>Generar documentación Doxygen</t>
+  </si>
+  <si>
+    <t>Customizar documentación</t>
+  </si>
+  <si>
+    <t>Desplegar documentación</t>
+  </si>
+  <si>
+    <t>Desarrollar coordinador de Subsistemas</t>
+  </si>
+  <si>
+    <t>Desarrollar motor de sonido</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +990,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1083,9 +1065,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1095,14 +1074,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1254,6 +1239,9 @@
           <cell r="A77" t="str">
             <v>CEO</v>
           </cell>
+          <cell r="B77"/>
+          <cell r="D77"/>
+          <cell r="E77"/>
         </row>
         <row r="78">
           <cell r="A78" t="str">
@@ -1276,6 +1264,9 @@
           <cell r="A79" t="str">
             <v>Secretario del Proyecto</v>
           </cell>
+          <cell r="B79"/>
+          <cell r="D79"/>
+          <cell r="E79"/>
         </row>
         <row r="80">
           <cell r="A80" t="str">
@@ -1553,6 +1544,9 @@
           <cell r="A96" t="str">
             <v>Director administrativo</v>
           </cell>
+          <cell r="B96"/>
+          <cell r="D96"/>
+          <cell r="E96"/>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
@@ -1565,7 +1559,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF1DF967-9E4F-46C0-A764-6B82F3FBA937}" name="Table2" displayName="Table2" ref="D15:F18" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF1DF967-9E4F-46C0-A764-6B82F3FBA937}" name="Table2" displayName="Table2" ref="D16:F19" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{6140B3DC-E940-42B6-BF3F-9F32F964EEF9}" name="Retraso" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{53C49771-7B6B-439D-BD6F-7C5C76A0C19A}" name="Probabilidad" dataDxfId="1"/>
@@ -1840,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2701,10 +2695,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB906D38-D352-4B9E-B79F-5DA893CDBD13}">
-  <dimension ref="A4:Q264"/>
+  <dimension ref="A4:R251"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="H251" sqref="H251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2720,19 +2714,19 @@
     <col min="16" max="16" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="E4" s="45" t="s">
+    <row r="4" spans="5:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="E4" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-    </row>
-    <row r="5" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+    </row>
+    <row r="5" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E5" s="7" t="s">
         <v>68</v>
       </c>
@@ -2757,8 +2751,11 @@
       <c r="L5" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="N5" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E6" s="8">
         <v>1</v>
       </c>
@@ -2778,7 +2775,7 @@
         <v>21600</v>
       </c>
     </row>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E7" s="8"/>
       <c r="F7" s="8">
         <v>1</v>
@@ -2787,7 +2784,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="8">
-        <f>30*8</f>
+        <f>N7*8</f>
         <v>240</v>
       </c>
       <c r="I7" s="8" t="s">
@@ -2801,8 +2798,11 @@
         <v>21600</v>
       </c>
       <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E8" s="8">
         <v>2</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E9" s="8"/>
       <c r="F9" s="8">
         <v>1</v>
@@ -2845,8 +2845,11 @@
         <v>3600</v>
       </c>
       <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="5:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="5:14" ht="30" x14ac:dyDescent="0.25">
       <c r="E10" s="8">
         <v>3</v>
       </c>
@@ -2866,7 +2869,7 @@
         <v>10080</v>
       </c>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E11" s="8"/>
       <c r="F11" s="8">
         <v>1</v>
@@ -2889,8 +2892,11 @@
         <v>10080</v>
       </c>
       <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E12" s="8">
         <v>4</v>
       </c>
@@ -2910,7 +2916,7 @@
         <v>21600</v>
       </c>
     </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E13" s="8"/>
       <c r="F13" s="8">
         <v>1</v>
@@ -2933,8 +2939,11 @@
         <v>21600</v>
       </c>
       <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="5:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="5:14" ht="30" x14ac:dyDescent="0.25">
       <c r="E14" s="8">
         <v>5</v>
       </c>
@@ -2954,7 +2963,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E15" s="8"/>
       <c r="F15" s="8">
         <v>1</v>
@@ -2977,8 +2986,11 @@
         <v>7200</v>
       </c>
       <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="5:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="5:14" ht="30" x14ac:dyDescent="0.25">
       <c r="E16" s="8">
         <v>6</v>
       </c>
@@ -2998,7 +3010,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E17" s="8"/>
       <c r="F17" s="8">
         <v>1</v>
@@ -3021,8 +3033,11 @@
         <v>3600</v>
       </c>
       <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E18" s="8">
         <v>7</v>
       </c>
@@ -3042,7 +3057,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E19" s="8"/>
       <c r="F19" s="8">
         <v>1</v>
@@ -3065,8 +3080,11 @@
         <v>3600</v>
       </c>
       <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="5:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="5:14" ht="30" x14ac:dyDescent="0.25">
       <c r="E20" s="8">
         <v>8</v>
       </c>
@@ -3086,7 +3104,7 @@
         <v>21600</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E21" s="8"/>
       <c r="F21" s="8">
         <v>1</v>
@@ -3109,8 +3127,11 @@
         <v>21600</v>
       </c>
       <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K22" t="s">
         <v>4</v>
       </c>
@@ -3119,27 +3140,27 @@
         <v>92880</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A36" s="45" t="s">
+    <row r="36" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A36" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>68</v>
       </c>
@@ -3150,13 +3171,13 @@
         <v>70</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G37" s="15" t="s">
         <v>71</v>
@@ -3171,13 +3192,13 @@
         <v>25</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N37" s="7" t="s">
         <v>73</v>
@@ -3188,8 +3209,11 @@
       <c r="P37" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R37" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>1</v>
       </c>
@@ -3213,11 +3237,11 @@
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
       <c r="P38" s="11">
-        <f>SUM(O38:O86)</f>
-        <v>81648</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+        <f>SUM(O38:O98)</f>
+        <v>122688</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8">
         <v>1</v>
@@ -3238,11 +3262,11 @@
       <c r="N39" s="8"/>
       <c r="O39" s="11">
         <f>SUM(N40:N43)</f>
-        <v>2880</v>
+        <v>5760</v>
       </c>
       <c r="P39" s="11"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8">
@@ -3262,12 +3286,12 @@
       <c r="M40" s="11"/>
       <c r="N40" s="11">
         <f>SUM(M41)</f>
-        <v>1440</v>
+        <v>2880</v>
       </c>
       <c r="O40" s="11"/>
       <c r="P40" s="8"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -3280,8 +3304,8 @@
         <v>5</v>
       </c>
       <c r="H41" s="8">
-        <f>2*8</f>
-        <v>16</v>
+        <f>R41*8</f>
+        <v>32</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>76</v>
@@ -3293,13 +3317,16 @@
       <c r="L41" s="11"/>
       <c r="M41" s="11">
         <f>H41*J41</f>
-        <v>1440</v>
+        <v>2880</v>
       </c>
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8">
@@ -3319,12 +3346,12 @@
       <c r="M42" s="11"/>
       <c r="N42" s="11">
         <f>SUM(M43)</f>
-        <v>1440</v>
+        <v>2880</v>
       </c>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -3337,8 +3364,8 @@
         <v>5</v>
       </c>
       <c r="H43" s="8">
-        <f>2*8</f>
-        <v>16</v>
+        <f>R43*8</f>
+        <v>32</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>76</v>
@@ -3350,13 +3377,16 @@
       <c r="L43" s="11"/>
       <c r="M43" s="11">
         <f>H43*J43</f>
-        <v>1440</v>
+        <v>2880</v>
       </c>
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="8"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8">
         <v>2</v>
@@ -3380,11 +3410,11 @@
       <c r="N44" s="11"/>
       <c r="O44" s="11">
         <f>SUM(N45:N58)</f>
-        <v>33120</v>
+        <v>28800</v>
       </c>
       <c r="P44" s="11"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8">
@@ -3406,12 +3436,12 @@
       <c r="M45" s="11"/>
       <c r="N45" s="11">
         <f>SUM(M46)</f>
-        <v>3600</v>
+        <v>1440</v>
       </c>
       <c r="O45" s="11"/>
       <c r="P45" s="8"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -3424,8 +3454,8 @@
         <v>5</v>
       </c>
       <c r="H46" s="8">
-        <f>5*8</f>
-        <v>40</v>
+        <f>R46*8</f>
+        <v>16</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>76</v>
@@ -3437,13 +3467,16 @@
       <c r="L46" s="11"/>
       <c r="M46" s="11">
         <f>H46*J46</f>
-        <v>3600</v>
+        <v>1440</v>
       </c>
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8">
@@ -3463,12 +3496,12 @@
       <c r="M47" s="11"/>
       <c r="N47" s="11">
         <f>SUM(M48)</f>
-        <v>2880</v>
+        <v>720</v>
       </c>
       <c r="O47" s="11"/>
       <c r="P47" s="8"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -3481,8 +3514,8 @@
         <v>5</v>
       </c>
       <c r="H48" s="8">
-        <f>4*8</f>
-        <v>32</v>
+        <f>R48*8</f>
+        <v>8</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>76</v>
@@ -3494,13 +3527,16 @@
       <c r="L48" s="11"/>
       <c r="M48" s="11">
         <f>H48*J48</f>
-        <v>2880</v>
+        <v>720</v>
       </c>
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8">
@@ -3525,7 +3561,7 @@
       <c r="O49" s="11"/>
       <c r="P49" s="8"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -3538,7 +3574,7 @@
         <v>5</v>
       </c>
       <c r="H50" s="8">
-        <f>4*8</f>
+        <f>R50*8</f>
         <v>32</v>
       </c>
       <c r="I50" s="8" t="s">
@@ -3556,8 +3592,11 @@
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
       <c r="P50" s="11"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8">
@@ -3585,7 +3624,7 @@
       <c r="O51" s="11"/>
       <c r="P51" s="8"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -3598,7 +3637,7 @@
         <v>5</v>
       </c>
       <c r="H52" s="8">
-        <f>5*8</f>
+        <f>R52*8</f>
         <v>40</v>
       </c>
       <c r="I52" s="8" t="s">
@@ -3616,8 +3655,11 @@
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
       <c r="P52" s="8"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8">
@@ -3645,7 +3687,7 @@
       <c r="O53" s="11"/>
       <c r="P53" s="8"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -3658,7 +3700,7 @@
         <v>5</v>
       </c>
       <c r="H54" s="8">
-        <f>20*8</f>
+        <f>R54*8</f>
         <v>160</v>
       </c>
       <c r="I54" s="8" t="s">
@@ -3676,8 +3718,11 @@
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
       <c r="P54" s="8"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8">
@@ -3705,7 +3750,7 @@
       <c r="O55" s="8"/>
       <c r="P55" s="8"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -3718,7 +3763,7 @@
         <v>5</v>
       </c>
       <c r="H56" s="8">
-        <f>3*8</f>
+        <f>R56*8</f>
         <v>24</v>
       </c>
       <c r="I56" s="8" t="s">
@@ -3736,8 +3781,11 @@
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
       <c r="P56" s="8"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8">
@@ -3765,7 +3813,7 @@
       <c r="O57" s="11"/>
       <c r="P57" s="8"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -3778,7 +3826,7 @@
         <v>5</v>
       </c>
       <c r="H58" s="8">
-        <f>5*8</f>
+        <f>R58*8</f>
         <v>40</v>
       </c>
       <c r="I58" s="8" t="s">
@@ -3796,8 +3844,11 @@
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
       <c r="P58" s="8"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8">
         <v>3</v>
@@ -3807,7 +3858,7 @@
       <c r="E59" s="21"/>
       <c r="F59" s="21"/>
       <c r="G59" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -3825,7 +3876,7 @@
       </c>
       <c r="P59" s="8"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8">
@@ -3835,7 +3886,7 @@
       <c r="E60" s="21"/>
       <c r="F60" s="21"/>
       <c r="G60" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
@@ -3853,7 +3904,7 @@
       <c r="O60" s="11"/>
       <c r="P60" s="8"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -3863,7 +3914,7 @@
       <c r="E61" s="21"/>
       <c r="F61" s="21"/>
       <c r="G61" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
@@ -3881,7 +3932,7 @@
       <c r="O61" s="8"/>
       <c r="P61" s="8"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -3894,7 +3945,7 @@
         <v>5</v>
       </c>
       <c r="H62" s="8">
-        <f>10*8</f>
+        <f>R62*8</f>
         <v>80</v>
       </c>
       <c r="I62" s="8" t="s">
@@ -3912,8 +3963,11 @@
       <c r="N62" s="8"/>
       <c r="O62" s="8"/>
       <c r="P62" s="8"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -3923,7 +3977,7 @@
       <c r="E63" s="21"/>
       <c r="F63" s="21"/>
       <c r="G63" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
@@ -3941,7 +3995,7 @@
       <c r="O63" s="8"/>
       <c r="P63" s="8"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -3954,7 +4008,7 @@
         <v>5</v>
       </c>
       <c r="H64" s="8">
-        <f>10*8</f>
+        <f>R64*8</f>
         <v>80</v>
       </c>
       <c r="I64" s="8" t="s">
@@ -3972,8 +4026,11 @@
       <c r="N64" s="8"/>
       <c r="O64" s="8"/>
       <c r="P64" s="8"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8">
@@ -3983,7 +4040,7 @@
       <c r="E65" s="21"/>
       <c r="F65" s="21"/>
       <c r="G65" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
@@ -4001,7 +4058,7 @@
       <c r="O65" s="8"/>
       <c r="P65" s="8"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -4011,7 +4068,7 @@
       <c r="E66" s="21"/>
       <c r="F66" s="21"/>
       <c r="G66" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
@@ -4029,7 +4086,7 @@
       <c r="O66" s="8"/>
       <c r="P66" s="8"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -4042,7 +4099,7 @@
         <v>5</v>
       </c>
       <c r="H67" s="8">
-        <f>5*8</f>
+        <f>R67*8</f>
         <v>40</v>
       </c>
       <c r="I67" s="8" t="s">
@@ -4059,8 +4116,11 @@
       <c r="N67" s="8"/>
       <c r="O67" s="8"/>
       <c r="P67" s="8"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -4070,7 +4130,7 @@
       <c r="E68" s="21"/>
       <c r="F68" s="21"/>
       <c r="G68" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
@@ -4088,7 +4148,7 @@
       <c r="O68" s="8"/>
       <c r="P68" s="8"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -4098,7 +4158,7 @@
       </c>
       <c r="F69" s="21"/>
       <c r="G69" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
@@ -4116,7 +4176,7 @@
       <c r="O69" s="8"/>
       <c r="P69" s="8"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -4129,7 +4189,7 @@
         <v>5</v>
       </c>
       <c r="H70" s="8">
-        <f>0.1*8</f>
+        <f>R70*8</f>
         <v>0.8</v>
       </c>
       <c r="I70" s="8" t="s">
@@ -4147,8 +4207,11 @@
       <c r="N70" s="8"/>
       <c r="O70" s="8"/>
       <c r="P70" s="8"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R70">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -4158,7 +4221,7 @@
       </c>
       <c r="F71" s="21"/>
       <c r="G71" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
@@ -4176,7 +4239,7 @@
       <c r="O71" s="8"/>
       <c r="P71" s="8"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -4189,7 +4252,7 @@
         <v>5</v>
       </c>
       <c r="H72" s="8">
-        <f>0.1*8</f>
+        <f>R72*8</f>
         <v>0.8</v>
       </c>
       <c r="I72" s="8" t="s">
@@ -4207,8 +4270,11 @@
       <c r="N72" s="8"/>
       <c r="O72" s="8"/>
       <c r="P72" s="8"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R72">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -4218,7 +4284,7 @@
       </c>
       <c r="F73" s="21"/>
       <c r="G73" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H73" s="13"/>
       <c r="I73" s="12"/>
@@ -4236,7 +4302,7 @@
       <c r="O73" s="13"/>
       <c r="P73" s="13"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -4249,7 +4315,7 @@
         <v>5</v>
       </c>
       <c r="H74" s="8">
-        <f>0.1*8</f>
+        <f>R74*8</f>
         <v>0.8</v>
       </c>
       <c r="I74" s="8" t="s">
@@ -4267,8 +4333,11 @@
       <c r="N74" s="13"/>
       <c r="O74" s="13"/>
       <c r="P74" s="13"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R74">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -4278,7 +4347,7 @@
       </c>
       <c r="F75" s="21"/>
       <c r="G75" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H75" s="14"/>
       <c r="J75" s="10"/>
@@ -4292,7 +4361,7 @@
       <c r="O75" s="13"/>
       <c r="P75" s="13"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -4305,7 +4374,7 @@
         <v>5</v>
       </c>
       <c r="H76" s="8">
-        <f>0.1*8</f>
+        <f>R76*8</f>
         <v>0.8</v>
       </c>
       <c r="I76" s="8" t="s">
@@ -4323,8 +4392,11 @@
       <c r="N76" s="13"/>
       <c r="O76" s="13"/>
       <c r="P76" s="13"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R76">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -4334,7 +4406,7 @@
       <c r="E77" s="21"/>
       <c r="F77" s="21"/>
       <c r="G77" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H77" s="13"/>
       <c r="I77" s="12"/>
@@ -4352,7 +4424,7 @@
       <c r="O77" s="13"/>
       <c r="P77" s="13"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -4362,7 +4434,7 @@
       </c>
       <c r="F78" s="21"/>
       <c r="G78" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H78" s="13"/>
       <c r="I78" s="12"/>
@@ -4380,7 +4452,7 @@
       <c r="O78" s="13"/>
       <c r="P78" s="13"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -4393,7 +4465,7 @@
         <v>5</v>
       </c>
       <c r="H79" s="8">
-        <f>1*8</f>
+        <f>R79*8</f>
         <v>8</v>
       </c>
       <c r="I79" s="8" t="s">
@@ -4411,8 +4483,11 @@
       <c r="N79" s="13"/>
       <c r="O79" s="13"/>
       <c r="P79" s="13"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -4422,7 +4497,7 @@
       </c>
       <c r="F80" s="21"/>
       <c r="G80" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H80" s="14"/>
       <c r="I80" s="12"/>
@@ -4440,7 +4515,7 @@
       <c r="O80" s="13"/>
       <c r="P80" s="13"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -4453,6 +4528,7 @@
         <v>5</v>
       </c>
       <c r="H81" s="8">
+        <f>R81*8</f>
         <v>8</v>
       </c>
       <c r="I81" s="8" t="s">
@@ -4470,8 +4546,11 @@
       <c r="N81" s="13"/>
       <c r="O81" s="13"/>
       <c r="P81" s="13"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -4481,7 +4560,7 @@
       </c>
       <c r="F82" s="21"/>
       <c r="G82" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H82" s="13"/>
       <c r="I82" s="12"/>
@@ -4499,7 +4578,7 @@
       <c r="O82" s="13"/>
       <c r="P82" s="13"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -4512,6 +4591,7 @@
         <v>5</v>
       </c>
       <c r="H83" s="8">
+        <f>R83*8</f>
         <v>8</v>
       </c>
       <c r="I83" s="8" t="s">
@@ -4529,8 +4609,11 @@
       <c r="N83" s="13"/>
       <c r="O83" s="13"/>
       <c r="P83" s="13"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -4540,7 +4623,7 @@
       </c>
       <c r="F84" s="21"/>
       <c r="G84" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H84" s="14"/>
       <c r="I84" s="12"/>
@@ -4558,7 +4641,7 @@
       <c r="O84" s="13"/>
       <c r="P84" s="13"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -4571,6 +4654,7 @@
         <v>5</v>
       </c>
       <c r="H85" s="8">
+        <f>R85*8</f>
         <v>8</v>
       </c>
       <c r="I85" s="8" t="s">
@@ -4588,8 +4672,11 @@
       <c r="N85" s="13"/>
       <c r="O85" s="13"/>
       <c r="P85" s="13"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="12"/>
       <c r="B86" s="12">
         <v>4</v>
@@ -4599,7 +4686,7 @@
       <c r="E86" s="21"/>
       <c r="F86" s="21"/>
       <c r="G86" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H86" s="13"/>
       <c r="I86" s="12"/>
@@ -4612,12 +4699,12 @@
       <c r="M86" s="13"/>
       <c r="N86" s="13"/>
       <c r="O86" s="13">
-        <f>SUM(N87:N94)</f>
-        <v>24480</v>
+        <f>SUM(N87:N96)</f>
+        <v>59760</v>
       </c>
       <c r="P86" s="13"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12">
@@ -4627,39 +4714,34 @@
       <c r="E87" s="21"/>
       <c r="F87" s="21"/>
       <c r="G87" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="H87" s="14"/>
+        <v>231</v>
+      </c>
+      <c r="H87" s="13"/>
       <c r="I87" s="12"/>
-      <c r="J87" s="10" t="str">
-        <f>IF(NOT(ISBLANK(I87)),VLOOKUP(G87,[1]Definición!$A$77:$E$96,5,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J87" s="10"/>
       <c r="K87" s="11"/>
       <c r="L87" s="13"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="11">
-        <f>SUM(M88)</f>
-        <v>10800</v>
+      <c r="M87" s="11"/>
+      <c r="N87" s="13">
+        <f>M88</f>
+        <v>2160</v>
       </c>
       <c r="O87" s="13"/>
       <c r="P87" s="13"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
-      <c r="D88" s="12">
-        <v>1</v>
-      </c>
+      <c r="D88" s="12"/>
       <c r="E88" s="21"/>
       <c r="F88" s="21"/>
-      <c r="G88" s="17" t="s">
+      <c r="G88" s="19" t="s">
         <v>5</v>
       </c>
       <c r="H88" s="8">
-        <f>15*8</f>
-        <v>120</v>
+        <f>R88*8</f>
+        <v>24</v>
       </c>
       <c r="I88" s="8" t="s">
         <v>76</v>
@@ -4667,17 +4749,20 @@
       <c r="J88" s="10">
         <v>90</v>
       </c>
-      <c r="K88" s="12"/>
+      <c r="K88" s="11"/>
       <c r="L88" s="13"/>
       <c r="M88" s="11">
         <f>H88*J88</f>
-        <v>10800</v>
+        <v>2160</v>
       </c>
       <c r="N88" s="13"/>
       <c r="O88" s="13"/>
       <c r="P88" s="13"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12">
@@ -4687,25 +4772,25 @@
       <c r="E89" s="21"/>
       <c r="F89" s="21"/>
       <c r="G89" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="H89" s="13"/>
+        <v>115</v>
+      </c>
+      <c r="H89" s="14"/>
       <c r="I89" s="12"/>
       <c r="J89" s="10" t="str">
         <f>IF(NOT(ISBLANK(I89)),VLOOKUP(G89,[1]Definición!$A$77:$E$96,5,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K89" s="12"/>
+      <c r="K89" s="11"/>
       <c r="L89" s="13"/>
-      <c r="M89" s="11"/>
+      <c r="M89" s="13"/>
       <c r="N89" s="11">
         <f>SUM(M90)</f>
-        <v>7200</v>
+        <v>21600</v>
       </c>
       <c r="O89" s="13"/>
       <c r="P89" s="13"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -4718,8 +4803,8 @@
         <v>5</v>
       </c>
       <c r="H90" s="8">
-        <f>10*8</f>
-        <v>80</v>
+        <f>R90*8</f>
+        <v>240</v>
       </c>
       <c r="I90" s="8" t="s">
         <v>76</v>
@@ -4731,13 +4816,16 @@
       <c r="L90" s="13"/>
       <c r="M90" s="11">
         <f>H90*J90</f>
-        <v>7200</v>
+        <v>21600</v>
       </c>
       <c r="N90" s="13"/>
       <c r="O90" s="13"/>
       <c r="P90" s="13"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R90">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12">
@@ -4747,9 +4835,9 @@
       <c r="E91" s="21"/>
       <c r="F91" s="21"/>
       <c r="G91" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="H91" s="14"/>
+        <v>116</v>
+      </c>
+      <c r="H91" s="13"/>
       <c r="I91" s="12"/>
       <c r="J91" s="10" t="str">
         <f>IF(NOT(ISBLANK(I91)),VLOOKUP(G91,[1]Definición!$A$77:$E$96,5,FALSE)," ")</f>
@@ -4760,12 +4848,12 @@
       <c r="M91" s="11"/>
       <c r="N91" s="11">
         <f>SUM(M92)</f>
-        <v>2880</v>
+        <v>14400</v>
       </c>
       <c r="O91" s="13"/>
       <c r="P91" s="13"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
@@ -4778,8 +4866,8 @@
         <v>5</v>
       </c>
       <c r="H92" s="8">
-        <f>4*8</f>
-        <v>32</v>
+        <f>R92*8</f>
+        <v>160</v>
       </c>
       <c r="I92" s="8" t="s">
         <v>76</v>
@@ -4791,13 +4879,16 @@
       <c r="L92" s="13"/>
       <c r="M92" s="11">
         <f>H92*J92</f>
-        <v>2880</v>
+        <v>14400</v>
       </c>
       <c r="N92" s="13"/>
       <c r="O92" s="13"/>
       <c r="P92" s="13"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R92">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12">
@@ -4807,7 +4898,7 @@
       <c r="E93" s="21"/>
       <c r="F93" s="21"/>
       <c r="G93" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H93" s="14"/>
       <c r="I93" s="12"/>
@@ -4820,12 +4911,12 @@
       <c r="M93" s="11"/>
       <c r="N93" s="11">
         <f>SUM(M94)</f>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="O93" s="13"/>
       <c r="P93" s="13"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -4838,8 +4929,8 @@
         <v>5</v>
       </c>
       <c r="H94" s="8">
-        <f>5*8</f>
-        <v>40</v>
+        <f>R94*8</f>
+        <v>80</v>
       </c>
       <c r="I94" s="8" t="s">
         <v>76</v>
@@ -4851,25 +4942,28 @@
       <c r="L94" s="13"/>
       <c r="M94" s="11">
         <f>H94*J94</f>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="N94" s="13"/>
       <c r="O94" s="13"/>
       <c r="P94" s="13"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="12">
-        <v>2</v>
-      </c>
+      <c r="R94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A95" s="12"/>
       <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
+      <c r="C95" s="12">
+        <v>5</v>
+      </c>
       <c r="D95" s="12"/>
       <c r="E95" s="21"/>
       <c r="F95" s="21"/>
       <c r="G95" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="H95" s="13"/>
+        <v>119</v>
+      </c>
+      <c r="H95" s="14"/>
       <c r="I95" s="12"/>
       <c r="J95" s="10" t="str">
         <f>IF(NOT(ISBLANK(I95)),VLOOKUP(G95,[1]Definición!$A$77:$E$96,5,FALSE)," ")</f>
@@ -4878,84 +4972,88 @@
       <c r="K95" s="12"/>
       <c r="L95" s="13"/>
       <c r="M95" s="11"/>
-      <c r="N95" s="13"/>
+      <c r="N95" s="11">
+        <f>SUM(M96)</f>
+        <v>14400</v>
+      </c>
       <c r="O95" s="13"/>
-      <c r="P95" s="13">
-        <f>SUM(O96:O108)</f>
-        <v>22320</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P95" s="13"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
-      <c r="B96" s="12">
-        <v>1</v>
-      </c>
+      <c r="B96" s="12"/>
       <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
+      <c r="D96" s="12">
+        <v>1</v>
+      </c>
       <c r="E96" s="21"/>
       <c r="F96" s="21"/>
       <c r="G96" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="H96" s="14"/>
-      <c r="I96" s="12"/>
-      <c r="J96" s="10" t="str">
-        <f>IF(NOT(ISBLANK(I96)),VLOOKUP(G96,[1]Definición!$A$77:$E$96,5,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>5</v>
+      </c>
+      <c r="H96" s="8">
+        <f>R96*8</f>
+        <v>160</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J96" s="10">
+        <v>90</v>
       </c>
       <c r="K96" s="12"/>
       <c r="L96" s="13"/>
-      <c r="M96" s="11"/>
+      <c r="M96" s="11">
+        <f>H96*J96</f>
+        <v>14400</v>
+      </c>
       <c r="N96" s="13"/>
-      <c r="O96" s="13">
-        <f>SUM(N97:N101)</f>
-        <v>12240</v>
-      </c>
+      <c r="O96" s="13"/>
       <c r="P96" s="13"/>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R96">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12">
-        <v>1</v>
-      </c>
-      <c r="D97" s="12"/>
+      <c r="B97" s="12">
+        <v>5</v>
+      </c>
+      <c r="C97" s="12"/>
+      <c r="D97" s="21"/>
       <c r="E97" s="21"/>
       <c r="F97" s="21"/>
       <c r="G97" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="H97" s="13"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="10" t="str">
-        <f>IF(NOT(ISBLANK(I97)),VLOOKUP(G97,[1]Definición!$A$77:$E$96,5,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="10"/>
       <c r="K97" s="12"/>
       <c r="L97" s="13"/>
       <c r="M97" s="11"/>
-      <c r="N97" s="11">
-        <f>SUM(M98)</f>
-        <v>1440</v>
-      </c>
-      <c r="O97" s="13"/>
+      <c r="N97" s="13"/>
+      <c r="O97" s="13">
+        <f>N98</f>
+        <v>7200</v>
+      </c>
       <c r="P97" s="13"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12">
-        <v>1</v>
-      </c>
+      <c r="C98" s="12">
+        <v>1</v>
+      </c>
+      <c r="D98" s="21"/>
       <c r="E98" s="21"/>
       <c r="F98" s="21"/>
-      <c r="G98" s="17" t="s">
+      <c r="G98" s="19" t="s">
         <v>5</v>
       </c>
       <c r="H98" s="8">
-        <f>2*8</f>
-        <v>16</v>
+        <f>R98*8</f>
+        <v>80</v>
       </c>
       <c r="I98" s="8" t="s">
         <v>76</v>
@@ -4965,222 +5063,219 @@
       </c>
       <c r="K98" s="12"/>
       <c r="L98" s="13"/>
-      <c r="M98" s="11">
+      <c r="M98" s="11"/>
+      <c r="N98" s="11">
         <f>H98*J98</f>
-        <v>1440</v>
-      </c>
-      <c r="N98" s="13"/>
+        <v>7200</v>
+      </c>
       <c r="O98" s="13"/>
       <c r="P98" s="13"/>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
+      <c r="R98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2</v>
+      </c>
       <c r="B99" s="12"/>
-      <c r="C99" s="12">
-        <v>2</v>
-      </c>
-      <c r="D99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="21"/>
       <c r="E99" s="21"/>
       <c r="F99" s="21"/>
       <c r="G99" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H99" s="13"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="10" t="str">
-        <f>IF(NOT(ISBLANK(I99)),VLOOKUP(G99,[1]Definición!$A$77:$E$96,5,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K99" s="12"/>
-      <c r="L99" s="13"/>
-      <c r="M99" s="11"/>
-      <c r="N99" s="11">
-        <f>SUM(M100)</f>
-        <v>7200</v>
-      </c>
-      <c r="O99" s="13"/>
-      <c r="P99" s="13"/>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="14"/>
+      <c r="K99" s="14"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="14"/>
+      <c r="N99" s="14"/>
+      <c r="O99" s="14"/>
+      <c r="P99" s="47">
+        <f>SUM(O100:O102)</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
+      <c r="B100" s="12">
+        <v>1</v>
+      </c>
       <c r="C100" s="12"/>
-      <c r="D100" s="12">
-        <v>1</v>
-      </c>
+      <c r="D100" s="21"/>
       <c r="E100" s="21"/>
       <c r="F100" s="21"/>
-      <c r="G100" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="8">
-        <f>10*8</f>
-        <v>80</v>
-      </c>
-      <c r="I100" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J100" s="10">
-        <v>90</v>
-      </c>
-      <c r="K100" s="12"/>
-      <c r="L100" s="13"/>
-      <c r="M100" s="11">
-        <f>H100*J100</f>
-        <v>7200</v>
-      </c>
-      <c r="N100" s="13"/>
-      <c r="O100" s="13"/>
-      <c r="P100" s="13"/>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G100" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="14"/>
+      <c r="K100" s="14"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="14"/>
+      <c r="N100" s="14"/>
+      <c r="O100" s="13">
+        <f>N101</f>
+        <v>720</v>
+      </c>
+      <c r="P100" s="14"/>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D101" s="12"/>
       <c r="E101" s="21"/>
-      <c r="F101" s="21"/>
+      <c r="F101" s="12"/>
       <c r="G101" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="H101" s="14"/>
-      <c r="I101" s="12"/>
-      <c r="J101" s="10" t="str">
-        <f>IF(NOT(ISBLANK(I101)),VLOOKUP(G101,[1]Definición!$A$77:$E$96,5,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K101" s="12"/>
-      <c r="L101" s="13"/>
-      <c r="M101" s="11"/>
+        <v>5</v>
+      </c>
+      <c r="H101" s="8">
+        <f>R101*8</f>
+        <v>8</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J101" s="10">
+        <v>90</v>
+      </c>
+      <c r="K101" s="14"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="14"/>
       <c r="N101" s="11">
-        <f>SUM(M102)</f>
-        <v>3600</v>
-      </c>
-      <c r="O101" s="13"/>
-      <c r="P101" s="13"/>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+        <f>H101*J101</f>
+        <v>720</v>
+      </c>
+      <c r="O101" s="14"/>
+      <c r="P101" s="14"/>
+      <c r="R101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
+      <c r="B102" s="12">
+        <v>2</v>
+      </c>
       <c r="C102" s="12"/>
-      <c r="D102" s="12">
-        <v>1</v>
-      </c>
+      <c r="D102" s="12"/>
       <c r="E102" s="21"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="8">
-        <f>5*8</f>
-        <v>40</v>
-      </c>
-      <c r="I102" s="8" t="s">
+      <c r="F102" s="12"/>
+      <c r="G102" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
+      <c r="J102" s="14"/>
+      <c r="K102" s="14"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="14"/>
+      <c r="N102" s="14"/>
+      <c r="O102" s="13">
+        <f>N103</f>
+        <v>720</v>
+      </c>
+      <c r="P102" s="14"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12">
+        <v>1</v>
+      </c>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H103" s="8">
+        <f>R103*8</f>
+        <v>8</v>
+      </c>
+      <c r="I103" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J102" s="10">
+      <c r="J103" s="10">
         <v>90</v>
       </c>
-      <c r="K102" s="12"/>
-      <c r="L102" s="13"/>
-      <c r="M102" s="11">
-        <f>H102*J102</f>
-        <v>3600</v>
-      </c>
-      <c r="N102" s="13"/>
-      <c r="O102" s="13"/>
-      <c r="P102" s="13"/>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
-      <c r="B103" s="12">
-        <v>2</v>
-      </c>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="21"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="H103" s="14"/>
-      <c r="I103" s="12"/>
-      <c r="J103" s="10" t="str">
-        <f>IF(NOT(ISBLANK(I103)),VLOOKUP(G103,[1]Definición!$A$77:$E$96,5,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K103" s="12"/>
-      <c r="L103" s="11"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="13"/>
-      <c r="O103" s="11">
-        <f>SUM(N104)</f>
-        <v>2880</v>
-      </c>
-      <c r="P103" s="13"/>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="12"/>
+      <c r="K103" s="14"/>
+      <c r="L103" s="14"/>
+      <c r="M103" s="14"/>
+      <c r="N103" s="11">
+        <f>H103*J103</f>
+        <v>720</v>
+      </c>
+      <c r="O103" s="14"/>
+      <c r="P103" s="14"/>
+      <c r="R103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A104" s="12">
+        <v>3</v>
+      </c>
       <c r="B104" s="12"/>
-      <c r="C104" s="12">
-        <v>1</v>
-      </c>
+      <c r="C104" s="12"/>
       <c r="D104" s="12"/>
       <c r="E104" s="21"/>
       <c r="F104" s="21"/>
-      <c r="G104" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H104" s="8">
-        <f>4*8</f>
-        <v>32</v>
-      </c>
-      <c r="I104" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J104" s="10">
-        <v>90</v>
+      <c r="G104" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H104" s="13"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="10" t="str">
+        <f>IF(NOT(ISBLANK(I104)),VLOOKUP(G104,[1]Definición!$A$77:$E$96,5,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K104" s="12"/>
-      <c r="M104" s="13"/>
-      <c r="N104" s="11">
-        <f>H104*J104</f>
-        <v>2880</v>
-      </c>
+      <c r="L104" s="13"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="13"/>
       <c r="O104" s="13"/>
-      <c r="P104" s="13"/>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P104" s="13">
+        <f>SUM(O105:O111)</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
       <c r="B105" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
       <c r="E105" s="21"/>
       <c r="F105" s="21"/>
       <c r="G105" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="H105" s="13"/>
+        <v>120</v>
+      </c>
+      <c r="H105" s="14"/>
       <c r="I105" s="12"/>
       <c r="J105" s="10" t="str">
         <f>IF(NOT(ISBLANK(I105)),VLOOKUP(G105,[1]Definición!$A$77:$E$96,5,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K105" s="12"/>
-      <c r="L105" s="11"/>
-      <c r="M105" s="13"/>
+      <c r="L105" s="13"/>
+      <c r="M105" s="11"/>
       <c r="N105" s="13"/>
-      <c r="O105" s="11">
-        <f>SUM(N106)</f>
-        <v>3600</v>
+      <c r="O105" s="13">
+        <f>SUM(N106:N110)</f>
+        <v>36000</v>
       </c>
       <c r="P105" s="13"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12">
@@ -5189,157 +5284,166 @@
       <c r="D106" s="12"/>
       <c r="E106" s="21"/>
       <c r="F106" s="21"/>
-      <c r="G106" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H106" s="8">
-        <f>5*8</f>
-        <v>40</v>
-      </c>
-      <c r="I106" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J106" s="10">
-        <v>90</v>
+      <c r="G106" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H106" s="13"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="10" t="str">
+        <f>IF(NOT(ISBLANK(I106)),VLOOKUP(G106,[1]Definición!$A$77:$E$96,5,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K106" s="12"/>
-      <c r="M106" s="13"/>
+      <c r="L106" s="13"/>
+      <c r="M106" s="11"/>
       <c r="N106" s="11">
-        <f>H106*J106</f>
-        <v>3600</v>
+        <f>SUM(M107)</f>
+        <v>7200</v>
       </c>
       <c r="O106" s="13"/>
       <c r="P106" s="13"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
-      <c r="B107" s="12">
-        <v>4</v>
-      </c>
+      <c r="B107" s="12"/>
       <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
+      <c r="D107" s="12">
+        <v>1</v>
+      </c>
       <c r="E107" s="21"/>
       <c r="F107" s="21"/>
-      <c r="G107" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="H107" s="14"/>
-      <c r="I107" s="12"/>
-      <c r="J107" s="10" t="str">
-        <f>IF(NOT(ISBLANK(I107)),VLOOKUP(G107,[1]Definición!$A$77:$E$96,5,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+      <c r="G107" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H107" s="8">
+        <f>R107*8</f>
+        <v>80</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J107" s="10">
+        <v>90</v>
       </c>
       <c r="K107" s="12"/>
-      <c r="L107" s="11"/>
-      <c r="M107" s="13"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="11">
+        <f>H107*J107</f>
+        <v>7200</v>
+      </c>
       <c r="N107" s="13"/>
-      <c r="O107" s="11">
-        <f>SUM(N108)</f>
-        <v>3600</v>
-      </c>
+      <c r="O107" s="13"/>
       <c r="P107" s="13"/>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R107">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108" s="12"/>
       <c r="E108" s="21"/>
       <c r="F108" s="21"/>
-      <c r="G108" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H108" s="8">
-        <f>5*8</f>
-        <v>40</v>
-      </c>
-      <c r="I108" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J108" s="10">
-        <v>90</v>
+      <c r="G108" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H108" s="13"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="10" t="str">
+        <f>IF(NOT(ISBLANK(I108)),VLOOKUP(G108,[1]Definición!$A$77:$E$96,5,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K108" s="12"/>
-      <c r="M108" s="13"/>
+      <c r="L108" s="13"/>
+      <c r="M108" s="11"/>
       <c r="N108" s="11">
-        <f>H108*J108</f>
-        <v>3600</v>
+        <f>SUM(M109)</f>
+        <v>7200</v>
       </c>
       <c r="O108" s="13"/>
       <c r="P108" s="13"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="12">
-        <v>3</v>
-      </c>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
+      <c r="D109" s="12">
+        <v>1</v>
+      </c>
       <c r="E109" s="21"/>
       <c r="F109" s="21"/>
-      <c r="G109" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H109" s="14"/>
-      <c r="I109" s="12"/>
-      <c r="J109" s="10" t="str">
-        <f>IF(NOT(ISBLANK(I109)),VLOOKUP(G109,[1]Definición!$A$77:$E$96,5,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+      <c r="G109" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H109" s="8">
+        <f>R109*8</f>
+        <v>80</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J109" s="10">
+        <v>90</v>
       </c>
       <c r="K109" s="12"/>
-      <c r="L109" s="11"/>
-      <c r="M109" s="13"/>
+      <c r="L109" s="13"/>
+      <c r="M109" s="11">
+        <f>H109*J109</f>
+        <v>7200</v>
+      </c>
       <c r="N109" s="13"/>
       <c r="O109" s="13"/>
-      <c r="P109" s="13">
-        <f>SUM(O110:O115)</f>
-        <v>10800</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P109" s="13"/>
+      <c r="R109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
-      <c r="B110" s="12">
-        <v>1</v>
-      </c>
-      <c r="C110" s="12"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12">
+        <v>3</v>
+      </c>
       <c r="D110" s="12"/>
       <c r="E110" s="21"/>
       <c r="F110" s="21"/>
       <c r="G110" s="19" t="s">
-        <v>128</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="H110" s="14"/>
       <c r="I110" s="12"/>
       <c r="J110" s="10" t="str">
         <f>IF(NOT(ISBLANK(I110)),VLOOKUP(G110,[1]Definición!$A$77:$E$96,5,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K110" s="12"/>
-      <c r="L110" s="11"/>
-      <c r="M110" s="13"/>
-      <c r="N110" s="13"/>
-      <c r="O110" s="11">
-        <f>SUM(N111)</f>
-        <v>3600</v>
-      </c>
+      <c r="L110" s="13"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11">
+        <f>SUM(M111)</f>
+        <v>21600</v>
+      </c>
+      <c r="O110" s="13"/>
       <c r="P110" s="13"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
-      <c r="C111" s="12">
-        <v>1</v>
-      </c>
-      <c r="D111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12">
+        <v>1</v>
+      </c>
       <c r="E111" s="21"/>
       <c r="F111" s="21"/>
       <c r="G111" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H111" s="13">
-        <f>5*8</f>
-        <v>40</v>
+      <c r="H111" s="8">
+        <f>R111*8</f>
+        <v>240</v>
       </c>
       <c r="I111" s="8" t="s">
         <v>76</v>
@@ -5348,415 +5452,437 @@
         <v>90</v>
       </c>
       <c r="K111" s="12"/>
-      <c r="M111" s="13"/>
-      <c r="N111" s="11">
+      <c r="L111" s="13"/>
+      <c r="M111" s="11">
         <f>H111*J111</f>
-        <v>3600</v>
-      </c>
+        <v>21600</v>
+      </c>
+      <c r="N111" s="13"/>
       <c r="O111" s="13"/>
       <c r="P111" s="13"/>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="12"/>
-      <c r="B112" s="12">
-        <v>2</v>
-      </c>
+      <c r="R111">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A112" s="12">
+        <v>4</v>
+      </c>
+      <c r="B112" s="12"/>
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
       <c r="E112" s="21"/>
       <c r="F112" s="21"/>
-      <c r="G112" s="19" t="s">
-        <v>129</v>
+      <c r="G112" s="21" t="s">
+        <v>221</v>
       </c>
       <c r="H112" s="14"/>
       <c r="I112" s="12"/>
       <c r="J112" s="10" t="str">
-        <f>IF(NOT(ISBLANK(I112)),VLOOKUP(G112,[1]Definición!$A$77:$E$96,5,FALSE)," ")</f>
+        <f>IF(NOT(ISBLANK(I112)),VLOOKUP(G113,[1]Definición!$A$77:$E$96,5,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K112" s="12"/>
       <c r="L112" s="11"/>
       <c r="M112" s="13"/>
       <c r="N112" s="13"/>
-      <c r="O112" s="11">
-        <f>SUM(N113)</f>
-        <v>3600</v>
-      </c>
-      <c r="P112" s="13"/>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O112" s="13"/>
+      <c r="P112" s="13">
+        <f>SUM(O113:O118)</f>
+        <v>7920</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="12">
-        <v>1</v>
-      </c>
+      <c r="B113" s="12">
+        <v>1</v>
+      </c>
+      <c r="C113" s="12"/>
       <c r="D113" s="12"/>
       <c r="E113" s="21"/>
       <c r="F113" s="21"/>
-      <c r="G113" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H113" s="8">
-        <f>5*8</f>
-        <v>40</v>
-      </c>
-      <c r="I113" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J113" s="10">
-        <v>90</v>
+      <c r="G113" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="I113" s="12"/>
+      <c r="J113" s="10" t="str">
+        <f>IF(NOT(ISBLANK(I113)),VLOOKUP(G114,[1]Definición!$A$77:$E$96,5,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K113" s="12"/>
+      <c r="L113" s="11"/>
       <c r="M113" s="13"/>
-      <c r="N113" s="11">
-        <f>H113*J113</f>
+      <c r="N113" s="13"/>
+      <c r="O113" s="11">
+        <f>SUM(N114)</f>
         <v>3600</v>
       </c>
-      <c r="O113" s="13"/>
       <c r="P113" s="13"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
-      <c r="B114" s="12">
-        <v>3</v>
-      </c>
-      <c r="C114" s="12"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="12">
+        <v>1</v>
+      </c>
       <c r="D114" s="12"/>
       <c r="E114" s="21"/>
       <c r="F114" s="21"/>
-      <c r="G114" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="H114" s="13"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="10" t="str">
-        <f>IF(NOT(ISBLANK(I114)),VLOOKUP(G114,[1]Definición!$A$77:$E$96,5,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+      <c r="G114" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H114" s="8">
+        <f>R114*8</f>
+        <v>40</v>
+      </c>
+      <c r="I114" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J114" s="10">
+        <v>90</v>
       </c>
       <c r="K114" s="12"/>
-      <c r="L114" s="11"/>
       <c r="M114" s="13"/>
-      <c r="N114" s="13"/>
-      <c r="O114" s="11">
-        <f>SUM(N115)</f>
+      <c r="N114" s="11">
+        <f>H114*J114</f>
         <v>3600</v>
       </c>
+      <c r="O114" s="13"/>
       <c r="P114" s="13"/>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="12">
-        <v>1</v>
-      </c>
+      <c r="B115" s="12">
+        <v>2</v>
+      </c>
+      <c r="C115" s="12"/>
       <c r="D115" s="12"/>
       <c r="E115" s="21"/>
       <c r="F115" s="21"/>
-      <c r="G115" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H115" s="8">
-        <f>5*8</f>
-        <v>40</v>
-      </c>
-      <c r="I115" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J115" s="10">
-        <v>90</v>
+      <c r="G115" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H115" s="14"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="10" t="str">
+        <f>IF(NOT(ISBLANK(I115)),VLOOKUP(G116,[1]Definición!$A$77:$E$96,5,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K115" s="12"/>
+      <c r="L115" s="11"/>
       <c r="M115" s="13"/>
-      <c r="N115" s="11">
-        <f>H115*J115</f>
+      <c r="N115" s="13"/>
+      <c r="O115" s="11">
+        <f>SUM(N116)</f>
         <v>3600</v>
       </c>
-      <c r="O115" s="13"/>
       <c r="P115" s="13"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
-      <c r="C116" s="12"/>
+      <c r="C116" s="12">
+        <v>1</v>
+      </c>
       <c r="D116" s="12"/>
       <c r="E116" s="21"/>
       <c r="F116" s="21"/>
-      <c r="G116" s="20"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
-      <c r="J116" s="12"/>
+      <c r="G116" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H116" s="8">
+        <f>R116*8</f>
+        <v>40</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J116" s="10">
+        <v>90</v>
+      </c>
       <c r="K116" s="12"/>
-      <c r="L116" s="13"/>
-      <c r="M116" s="12"/>
-      <c r="N116" s="12"/>
-      <c r="O116" s="12" t="s">
+      <c r="M116" s="13"/>
+      <c r="N116" s="11">
+        <f>H116*J116</f>
+        <v>3600</v>
+      </c>
+      <c r="O116" s="13"/>
+      <c r="P116" s="13"/>
+      <c r="R116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A117" s="12"/>
+      <c r="B117" s="12">
+        <v>3</v>
+      </c>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="H117" s="13"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="10" t="str">
+        <f>IF(NOT(ISBLANK(I117)),VLOOKUP(G118,[1]Definición!$A$77:$E$96,5,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K117" s="12"/>
+      <c r="L117" s="11"/>
+      <c r="M117" s="13"/>
+      <c r="N117" s="13"/>
+      <c r="O117" s="11">
+        <f>SUM(N118)</f>
+        <v>720</v>
+      </c>
+      <c r="P117" s="13"/>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A118" s="12"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12">
+        <v>1</v>
+      </c>
+      <c r="D118" s="12"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H118" s="8">
+        <f>R118*8</f>
+        <v>8</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J118" s="10">
+        <v>90</v>
+      </c>
+      <c r="K118" s="12"/>
+      <c r="M118" s="13"/>
+      <c r="N118" s="11">
+        <f>H118*J118</f>
+        <v>720</v>
+      </c>
+      <c r="O118" s="13"/>
+      <c r="P118" s="13"/>
+      <c r="R118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A119" s="12"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="20"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="13"/>
+      <c r="M119" s="12"/>
+      <c r="N119" s="12"/>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O120" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P116" s="13">
-        <f>SUM(P38:P114)</f>
-        <v>114768</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="B125" s="45" t="s">
+      <c r="P120" s="13">
+        <f>SUM(P38:P117)</f>
+        <v>168048</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="B128" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C128" s="43"/>
+      <c r="D128" s="43"/>
+      <c r="E128" s="43"/>
+      <c r="F128" s="43"/>
+      <c r="G128" s="43"/>
+      <c r="H128" s="43"/>
+      <c r="I128" s="43"/>
+      <c r="J128" s="43"/>
+      <c r="K128" s="43"/>
+      <c r="L128" s="43"/>
+      <c r="M128" s="43"/>
+      <c r="N128" s="43"/>
+      <c r="O128" s="43"/>
+    </row>
+    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B129" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F129" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C125" s="45"/>
-      <c r="D125" s="45"/>
-      <c r="E125" s="45"/>
-      <c r="F125" s="45"/>
-      <c r="G125" s="45"/>
-      <c r="H125" s="45"/>
-      <c r="I125" s="45"/>
-      <c r="J125" s="45"/>
-      <c r="K125" s="45"/>
-      <c r="L125" s="45"/>
-      <c r="M125" s="45"/>
-      <c r="N125" s="45"/>
-      <c r="O125" s="45"/>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B126" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F126" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G126" s="15" t="s">
+      <c r="G129" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H126" s="7" t="s">
+      <c r="H129" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I126" s="7" t="s">
+      <c r="I129" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J126" s="7" t="s">
+      <c r="J129" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K126" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L126" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="M126" s="7" t="s">
+      <c r="K129" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L129" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M129" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="N126" s="7" t="s">
+      <c r="N129" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="O126" s="7" t="s">
+      <c r="O129" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="Q126" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B127" s="8">
-        <v>1</v>
-      </c>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="21"/>
-      <c r="G127" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="H127" s="22"/>
-      <c r="I127" s="8"/>
-      <c r="J127" s="10"/>
-      <c r="K127" s="8"/>
-      <c r="L127" s="8"/>
-      <c r="M127" s="8"/>
-      <c r="N127" s="8"/>
-      <c r="O127" s="11">
-        <f>SUM(N127:N132)</f>
-        <v>5760</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B128" s="8"/>
-      <c r="C128" s="8">
-        <v>1</v>
-      </c>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="21"/>
-      <c r="G128" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="H128" s="22"/>
-      <c r="I128" s="8"/>
-      <c r="J128" s="10"/>
-      <c r="K128" s="8"/>
-      <c r="L128" s="11"/>
-      <c r="M128" s="11"/>
-      <c r="N128" s="11">
-        <f>SUM(M129)</f>
-        <v>720</v>
-      </c>
-      <c r="O128" s="11"/>
-    </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8">
-        <v>1</v>
-      </c>
-      <c r="E129" s="8"/>
-      <c r="F129" s="21"/>
-      <c r="G129" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H129" s="22">
-        <f>Q129*8</f>
-        <v>8</v>
-      </c>
-      <c r="I129" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J129" s="10">
-        <v>90</v>
-      </c>
-      <c r="K129" s="8"/>
-      <c r="L129" s="11"/>
-      <c r="M129" s="11">
-        <f>H129*J129</f>
-        <v>720</v>
-      </c>
-      <c r="N129" s="11"/>
-      <c r="O129" s="11"/>
-      <c r="Q129">
-        <v>1</v>
+      <c r="Q129" s="7" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="130" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B130" s="8"/>
-      <c r="C130" s="8">
-        <v>2</v>
-      </c>
+      <c r="B130" s="8">
+        <v>1</v>
+      </c>
+      <c r="C130" s="8"/>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="21"/>
-      <c r="G130" s="24" t="s">
-        <v>140</v>
+      <c r="G130" s="23" t="s">
+        <v>132</v>
       </c>
       <c r="H130" s="22"/>
       <c r="I130" s="8"/>
       <c r="J130" s="10"/>
       <c r="K130" s="8"/>
-      <c r="L130" s="11"/>
-      <c r="M130" s="11"/>
-      <c r="N130" s="11">
-        <f>SUM(M131)</f>
-        <v>720</v>
-      </c>
-      <c r="O130" s="11"/>
+      <c r="L130" s="8"/>
+      <c r="M130" s="8"/>
+      <c r="N130" s="8"/>
+      <c r="O130" s="11">
+        <f>SUM(N130:N135)</f>
+        <v>5760</v>
+      </c>
     </row>
     <row r="131" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8">
-        <v>1</v>
-      </c>
+      <c r="C131" s="8">
+        <v>1</v>
+      </c>
+      <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="21"/>
       <c r="G131" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H131" s="22">
-        <f t="shared" ref="H131:H190" si="1">Q131*8</f>
-        <v>8</v>
-      </c>
-      <c r="I131" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J131" s="10">
-        <v>90</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="H131" s="22"/>
+      <c r="I131" s="8"/>
+      <c r="J131" s="10"/>
       <c r="K131" s="8"/>
       <c r="L131" s="11"/>
-      <c r="M131" s="11">
-        <f>H131*J131</f>
+      <c r="M131" s="11"/>
+      <c r="N131" s="11">
+        <f>SUM(M132)</f>
         <v>720</v>
       </c>
-      <c r="N131" s="11"/>
       <c r="O131" s="11"/>
-      <c r="Q131">
-        <v>1</v>
-      </c>
     </row>
     <row r="132" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B132" s="8"/>
-      <c r="C132" s="8">
-        <v>3</v>
-      </c>
-      <c r="D132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8">
+        <v>1</v>
+      </c>
       <c r="E132" s="8"/>
       <c r="F132" s="21"/>
-      <c r="G132" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="H132" s="22"/>
-      <c r="I132" s="8"/>
-      <c r="J132" s="10"/>
+      <c r="G132" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H132" s="22">
+        <f>Q132*8</f>
+        <v>8</v>
+      </c>
+      <c r="I132" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J132" s="10">
+        <v>90</v>
+      </c>
       <c r="K132" s="8"/>
       <c r="L132" s="11"/>
-      <c r="M132" s="11"/>
-      <c r="N132" s="11">
-        <f>SUM(M133:M136)</f>
-        <v>4320</v>
-      </c>
+      <c r="M132" s="11">
+        <f>H132*J132</f>
+        <v>720</v>
+      </c>
+      <c r="N132" s="11"/>
       <c r="O132" s="11"/>
+      <c r="Q132">
+        <v>1</v>
+      </c>
     </row>
     <row r="133" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B133" s="8"/>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8">
-        <v>1</v>
-      </c>
+      <c r="C133" s="8">
+        <v>2</v>
+      </c>
+      <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="21"/>
       <c r="G133" s="24" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="H133" s="22"/>
       <c r="I133" s="8"/>
       <c r="J133" s="10"/>
       <c r="K133" s="8"/>
       <c r="L133" s="11"/>
-      <c r="M133" s="11">
-        <f>SUM(L134)</f>
-        <v>2160</v>
-      </c>
-      <c r="N133" s="11"/>
+      <c r="M133" s="11"/>
+      <c r="N133" s="11">
+        <f>SUM(M134)</f>
+        <v>720</v>
+      </c>
       <c r="O133" s="11"/>
     </row>
     <row r="134" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8">
-        <v>1</v>
-      </c>
+      <c r="D134" s="8">
+        <v>1</v>
+      </c>
+      <c r="E134" s="8"/>
       <c r="F134" s="21"/>
       <c r="G134" s="24" t="s">
         <v>5</v>
       </c>
       <c r="H134" s="22">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f t="shared" ref="H134:H189" si="1">Q134*8</f>
+        <v>8</v>
       </c>
       <c r="I134" s="8" t="s">
         <v>76</v>
@@ -5765,133 +5891,133 @@
         <v>90</v>
       </c>
       <c r="K134" s="8"/>
-      <c r="L134" s="11">
+      <c r="L134" s="11"/>
+      <c r="M134" s="11">
         <f>H134*J134</f>
-        <v>2160</v>
-      </c>
-      <c r="M134" s="11"/>
+        <v>720</v>
+      </c>
       <c r="N134" s="11"/>
       <c r="O134" s="11"/>
       <c r="Q134">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8">
-        <v>2</v>
-      </c>
+      <c r="C135" s="8">
+        <v>3</v>
+      </c>
+      <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="21"/>
-      <c r="G135" s="24" t="s">
-        <v>143</v>
+      <c r="G135" s="23" t="s">
+        <v>134</v>
       </c>
       <c r="H135" s="22"/>
       <c r="I135" s="8"/>
       <c r="J135" s="10"/>
       <c r="K135" s="8"/>
       <c r="L135" s="11"/>
-      <c r="M135" s="11">
-        <f>SUM(L136)</f>
-        <v>2160</v>
-      </c>
-      <c r="N135" s="11"/>
+      <c r="M135" s="11"/>
+      <c r="N135" s="11">
+        <f>SUM(M136:M139)</f>
+        <v>4320</v>
+      </c>
       <c r="O135" s="11"/>
     </row>
     <row r="136" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8">
-        <v>1</v>
-      </c>
+      <c r="D136" s="8">
+        <v>1</v>
+      </c>
+      <c r="E136" s="8"/>
       <c r="F136" s="21"/>
       <c r="G136" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H136" s="22">
+        <v>135</v>
+      </c>
+      <c r="H136" s="22"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="10"/>
+      <c r="K136" s="8"/>
+      <c r="L136" s="11"/>
+      <c r="M136" s="11">
+        <f>SUM(L137)</f>
+        <v>2160</v>
+      </c>
+      <c r="N136" s="11"/>
+      <c r="O136" s="11"/>
+    </row>
+    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8">
+        <v>1</v>
+      </c>
+      <c r="F137" s="21"/>
+      <c r="G137" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H137" s="22">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="I136" s="8" t="s">
+      <c r="I137" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J136" s="10">
+      <c r="J137" s="10">
         <v>90</v>
       </c>
-      <c r="K136" s="8"/>
-      <c r="L136" s="11">
-        <f>H136*J136</f>
+      <c r="K137" s="8"/>
+      <c r="L137" s="11">
+        <f>H137*J137</f>
         <v>2160</v>
       </c>
-      <c r="M136" s="11"/>
-      <c r="N136" s="11"/>
-      <c r="O136" s="11"/>
-      <c r="Q136">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B137" s="8">
-        <v>2</v>
-      </c>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="21"/>
-      <c r="G137" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="H137" s="22"/>
-      <c r="I137" s="8"/>
-      <c r="J137" s="10"/>
-      <c r="K137" s="8"/>
-      <c r="L137" s="11"/>
       <c r="M137" s="11"/>
       <c r="N137" s="11"/>
-      <c r="O137" s="11">
-        <f>SUM(N138:N140)</f>
-        <v>3513.6</v>
+      <c r="O137" s="11"/>
+      <c r="Q137">
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B138" s="8"/>
-      <c r="C138" s="8">
-        <v>1</v>
-      </c>
-      <c r="D138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8">
+        <v>2</v>
+      </c>
       <c r="E138" s="8"/>
       <c r="F138" s="21"/>
       <c r="G138" s="24" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H138" s="22"/>
       <c r="I138" s="8"/>
       <c r="J138" s="10"/>
       <c r="K138" s="8"/>
       <c r="L138" s="11"/>
-      <c r="M138" s="11"/>
-      <c r="N138" s="11">
-        <f>SUM(M139)</f>
-        <v>2880</v>
-      </c>
+      <c r="M138" s="11">
+        <f>SUM(L139)</f>
+        <v>2160</v>
+      </c>
+      <c r="N138" s="11"/>
       <c r="O138" s="11"/>
     </row>
     <row r="139" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
-      <c r="D139" s="8">
-        <v>1</v>
-      </c>
-      <c r="E139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8">
+        <v>1</v>
+      </c>
       <c r="F139" s="21"/>
       <c r="G139" s="24" t="s">
         <v>5</v>
       </c>
       <c r="H139" s="22">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I139" s="8" t="s">
         <v>76</v>
@@ -5900,27 +6026,27 @@
         <v>90</v>
       </c>
       <c r="K139" s="8"/>
-      <c r="L139" s="11"/>
-      <c r="M139" s="11">
+      <c r="L139" s="11">
         <f>H139*J139</f>
-        <v>2880</v>
-      </c>
+        <v>2160</v>
+      </c>
+      <c r="M139" s="11"/>
       <c r="N139" s="11"/>
       <c r="O139" s="11"/>
       <c r="Q139">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B140" s="8"/>
-      <c r="C140" s="8">
+      <c r="B140" s="8">
         <v>2</v>
       </c>
+      <c r="C140" s="8"/>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="21"/>
-      <c r="G140" s="24" t="s">
-        <v>146</v>
+      <c r="G140" s="23" t="s">
+        <v>186</v>
       </c>
       <c r="H140" s="22"/>
       <c r="I140" s="8"/>
@@ -5928,78 +6054,78 @@
       <c r="K140" s="8"/>
       <c r="L140" s="11"/>
       <c r="M140" s="11"/>
-      <c r="N140" s="11">
-        <f>SUM(M141)</f>
-        <v>633.6</v>
-      </c>
-      <c r="O140" s="11"/>
+      <c r="N140" s="11"/>
+      <c r="O140" s="11">
+        <f>SUM(N141:N143)</f>
+        <v>5760</v>
+      </c>
     </row>
     <row r="141" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8">
-        <v>1</v>
-      </c>
+      <c r="C141" s="8">
+        <v>1</v>
+      </c>
+      <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="21"/>
       <c r="G141" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H141" s="22">
-        <f t="shared" si="1"/>
-        <v>7.04</v>
-      </c>
-      <c r="I141" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J141" s="10">
-        <v>90</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="H141" s="22"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="10"/>
       <c r="K141" s="8"/>
       <c r="L141" s="11"/>
-      <c r="M141" s="11">
-        <f>H141*J141</f>
-        <v>633.6</v>
-      </c>
-      <c r="N141" s="11"/>
+      <c r="M141" s="11"/>
+      <c r="N141" s="11">
+        <f>SUM(M142)</f>
+        <v>3600</v>
+      </c>
       <c r="O141" s="11"/>
-      <c r="Q141">
-        <v>0.88</v>
-      </c>
     </row>
     <row r="142" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B142" s="8">
-        <v>3</v>
-      </c>
+      <c r="B142" s="8"/>
       <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
+      <c r="D142" s="8">
+        <v>1</v>
+      </c>
       <c r="E142" s="8"/>
       <c r="F142" s="21"/>
-      <c r="G142" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="H142" s="22"/>
-      <c r="I142" s="8"/>
-      <c r="J142" s="10"/>
+      <c r="G142" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H142" s="22">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I142" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J142" s="10">
+        <v>90</v>
+      </c>
       <c r="K142" s="8"/>
       <c r="L142" s="11"/>
-      <c r="M142" s="11"/>
+      <c r="M142" s="11">
+        <f>H142*J142</f>
+        <v>3600</v>
+      </c>
       <c r="N142" s="11"/>
-      <c r="O142" s="11">
-        <f>SUM(N143:N156)</f>
-        <v>8640</v>
+      <c r="O142" s="11"/>
+      <c r="Q142">
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B143" s="8"/>
       <c r="C143" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="21"/>
-      <c r="G143" s="23" t="s">
-        <v>148</v>
+      <c r="G143" s="24" t="s">
+        <v>139</v>
       </c>
       <c r="H143" s="22"/>
       <c r="I143" s="8"/>
@@ -6008,8 +6134,8 @@
       <c r="L143" s="11"/>
       <c r="M143" s="11"/>
       <c r="N143" s="11">
-        <f>SUM(M144:M146)</f>
-        <v>2880</v>
+        <f>SUM(M144)</f>
+        <v>2160</v>
       </c>
       <c r="O143" s="11"/>
     </row>
@@ -6022,141 +6148,142 @@
       <c r="E144" s="8"/>
       <c r="F144" s="21"/>
       <c r="G144" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="H144" s="22"/>
-      <c r="I144" s="8"/>
-      <c r="J144" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="H144" s="22">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="I144" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J144" s="10">
+        <v>90</v>
+      </c>
       <c r="K144" s="8"/>
       <c r="L144" s="11"/>
       <c r="M144" s="11">
-        <f>SUM(L145)</f>
-        <v>1440</v>
+        <f>H144*J144</f>
+        <v>2160</v>
       </c>
       <c r="N144" s="11"/>
-      <c r="O144" s="8"/>
+      <c r="O144" s="11"/>
+      <c r="Q144">
+        <v>3</v>
+      </c>
     </row>
     <row r="145" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B145" s="8"/>
+      <c r="B145" s="8">
+        <v>3</v>
+      </c>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
-      <c r="E145" s="8">
-        <v>1</v>
-      </c>
+      <c r="E145" s="8"/>
       <c r="F145" s="21"/>
-      <c r="G145" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H145" s="22">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="I145" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J145" s="10">
-        <v>90</v>
-      </c>
+      <c r="G145" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="H145" s="22"/>
+      <c r="I145" s="8"/>
+      <c r="J145" s="10"/>
       <c r="K145" s="8"/>
-      <c r="L145" s="11">
-        <f>H145*J145</f>
-        <v>1440</v>
-      </c>
-      <c r="M145" s="8"/>
+      <c r="L145" s="11"/>
+      <c r="M145" s="11"/>
       <c r="N145" s="11"/>
-      <c r="O145" s="8"/>
-      <c r="Q145">
-        <v>2</v>
+      <c r="O145" s="11">
+        <f>SUM(N146:N161)</f>
+        <v>10080</v>
       </c>
     </row>
     <row r="146" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B146" s="8"/>
-      <c r="C146" s="8"/>
-      <c r="D146" s="8">
-        <v>2</v>
-      </c>
+      <c r="C146" s="8">
+        <v>1</v>
+      </c>
+      <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="21"/>
-      <c r="G146" s="24" t="s">
-        <v>150</v>
+      <c r="G146" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="H146" s="22"/>
       <c r="I146" s="8"/>
       <c r="J146" s="10"/>
       <c r="K146" s="8"/>
       <c r="L146" s="11"/>
-      <c r="M146" s="11">
-        <f>SUM(L147)</f>
-        <v>1440</v>
-      </c>
-      <c r="N146" s="11"/>
+      <c r="M146" s="11"/>
+      <c r="N146" s="11">
+        <f>SUM(M147:M151)</f>
+        <v>4320</v>
+      </c>
       <c r="O146" s="11"/>
     </row>
     <row r="147" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8">
-        <v>1</v>
-      </c>
+      <c r="D147" s="8">
+        <v>1</v>
+      </c>
+      <c r="E147" s="8"/>
       <c r="F147" s="21"/>
       <c r="G147" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H147" s="22">
+        <v>142</v>
+      </c>
+      <c r="H147" s="22"/>
+      <c r="I147" s="8"/>
+      <c r="J147" s="10"/>
+      <c r="K147" s="8"/>
+      <c r="L147" s="11"/>
+      <c r="M147" s="11">
+        <f>SUM(L148)</f>
+        <v>1440</v>
+      </c>
+      <c r="N147" s="11"/>
+      <c r="O147" s="8"/>
+    </row>
+    <row r="148" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8">
+        <v>1</v>
+      </c>
+      <c r="F148" s="21"/>
+      <c r="G148" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H148" s="22">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I147" s="8" t="s">
+      <c r="I148" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J147" s="10">
+      <c r="J148" s="10">
         <v>90</v>
       </c>
-      <c r="K147" s="8"/>
-      <c r="L147" s="11">
-        <f>H147*J147</f>
+      <c r="K148" s="8"/>
+      <c r="L148" s="11">
+        <f>H148*J148</f>
         <v>1440</v>
       </c>
-      <c r="M147" s="11"/>
-      <c r="O147" s="11"/>
-      <c r="Q147">
+      <c r="M148" s="8"/>
+      <c r="N148" s="11"/>
+      <c r="O148" s="8"/>
+      <c r="Q148">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B148" s="8"/>
-      <c r="C148" s="8">
-        <v>2</v>
-      </c>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="21"/>
-      <c r="G148" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="H148" s="22"/>
-      <c r="I148" s="8"/>
-      <c r="J148" s="10"/>
-      <c r="K148" s="8"/>
-      <c r="L148" s="11"/>
-      <c r="M148" s="11"/>
-      <c r="N148" s="11">
-        <f>SUM(M149:M151)</f>
-        <v>1440</v>
-      </c>
-      <c r="O148" s="8"/>
     </row>
     <row r="149" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E149" s="8"/>
       <c r="F149" s="21"/>
       <c r="G149" s="24" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="H149" s="22"/>
       <c r="I149" s="8"/>
@@ -6165,10 +6292,10 @@
       <c r="L149" s="11"/>
       <c r="M149" s="11">
         <f>SUM(L150)</f>
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="N149" s="11"/>
-      <c r="O149" s="11"/>
+      <c r="O149" s="8"/>
     </row>
     <row r="150" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B150" s="8"/>
@@ -6183,7 +6310,7 @@
       </c>
       <c r="H150" s="22">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I150" s="8" t="s">
         <v>76</v>
@@ -6194,25 +6321,25 @@
       <c r="K150" s="8"/>
       <c r="L150" s="11">
         <f>H150*J150</f>
-        <v>720</v>
-      </c>
-      <c r="M150" s="11"/>
+        <v>1440</v>
+      </c>
+      <c r="M150" s="8"/>
       <c r="N150" s="11"/>
-      <c r="O150" s="11"/>
+      <c r="O150" s="8"/>
       <c r="Q150">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E151" s="8"/>
       <c r="F151" s="21"/>
       <c r="G151" s="24" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="H151" s="22"/>
       <c r="I151" s="8"/>
@@ -6221,10 +6348,10 @@
       <c r="L151" s="11"/>
       <c r="M151" s="11">
         <f>SUM(L152)</f>
-        <v>720</v>
-      </c>
-      <c r="N151" s="8"/>
-      <c r="O151" s="8"/>
+        <v>1440</v>
+      </c>
+      <c r="N151" s="11"/>
+      <c r="O151" s="11"/>
     </row>
     <row r="152" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B152" s="8"/>
@@ -6239,7 +6366,7 @@
       </c>
       <c r="H152" s="22">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I152" s="8" t="s">
         <v>76</v>
@@ -6250,25 +6377,24 @@
       <c r="K152" s="8"/>
       <c r="L152" s="11">
         <f>H152*J152</f>
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="M152" s="11"/>
-      <c r="N152" s="8"/>
-      <c r="O152" s="8"/>
+      <c r="O152" s="11"/>
       <c r="Q152">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B153" s="8"/>
       <c r="C153" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
       <c r="F153" s="21"/>
       <c r="G153" s="23" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H153" s="22"/>
       <c r="I153" s="8"/>
@@ -6277,8 +6403,8 @@
       <c r="L153" s="11"/>
       <c r="M153" s="11"/>
       <c r="N153" s="11">
-        <f>SUM(M154:M165)</f>
-        <v>4320</v>
+        <f>SUM(M154:M156)</f>
+        <v>1440</v>
       </c>
       <c r="O153" s="8"/>
     </row>
@@ -6290,8 +6416,8 @@
       </c>
       <c r="E154" s="8"/>
       <c r="F154" s="21"/>
-      <c r="G154" s="23" t="s">
-        <v>155</v>
+      <c r="G154" s="24" t="s">
+        <v>144</v>
       </c>
       <c r="H154" s="22"/>
       <c r="I154" s="8"/>
@@ -6299,11 +6425,11 @@
       <c r="K154" s="8"/>
       <c r="L154" s="11"/>
       <c r="M154" s="11">
-        <f>SUM(L155:L161)</f>
-        <v>2880</v>
-      </c>
-      <c r="N154" s="8"/>
-      <c r="O154" s="8"/>
+        <f>SUM(L155)</f>
+        <v>720</v>
+      </c>
+      <c r="N154" s="11"/>
+      <c r="O154" s="11"/>
     </row>
     <row r="155" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B155" s="8"/>
@@ -6314,547 +6440,548 @@
       </c>
       <c r="F155" s="21"/>
       <c r="G155" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="H155" s="22"/>
-      <c r="I155" s="8"/>
-      <c r="J155" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="H155" s="22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I155" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J155" s="10">
+        <v>90</v>
+      </c>
       <c r="K155" s="8"/>
       <c r="L155" s="11">
-        <f>SUM(K156)</f>
+        <f>H155*J155</f>
         <v>720</v>
       </c>
       <c r="M155" s="11"/>
       <c r="N155" s="11"/>
       <c r="O155" s="11"/>
+      <c r="Q155">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
-      <c r="D156" s="8"/>
+      <c r="D156" s="8">
+        <v>2</v>
+      </c>
       <c r="E156" s="8"/>
-      <c r="F156" s="21">
-        <v>1</v>
-      </c>
+      <c r="F156" s="21"/>
       <c r="G156" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H156" s="22">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="I156" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J156" s="10">
-        <v>90</v>
-      </c>
-      <c r="K156" s="11">
-        <f>H156*J156</f>
+        <v>145</v>
+      </c>
+      <c r="H156" s="22"/>
+      <c r="I156" s="8"/>
+      <c r="J156" s="10"/>
+      <c r="K156" s="8"/>
+      <c r="L156" s="11"/>
+      <c r="M156" s="11">
+        <f>SUM(L157)</f>
         <v>720</v>
       </c>
-      <c r="L156" s="11"/>
-      <c r="M156" s="11"/>
-      <c r="N156" s="11"/>
-      <c r="O156" s="11"/>
-      <c r="Q156">
-        <v>1</v>
-      </c>
+      <c r="N156" s="8"/>
+      <c r="O156" s="8"/>
     </row>
     <row r="157" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
       <c r="E157" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F157" s="21"/>
       <c r="G157" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="H157" s="22"/>
-      <c r="I157" s="8"/>
-      <c r="J157" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="H157" s="22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I157" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J157" s="10">
+        <v>90</v>
+      </c>
       <c r="K157" s="8"/>
       <c r="L157" s="11">
-        <f>SUM(K158)</f>
+        <f>H157*J157</f>
         <v>720</v>
       </c>
       <c r="M157" s="11"/>
       <c r="N157" s="8"/>
       <c r="O157" s="8"/>
+      <c r="Q157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B158" s="8"/>
-      <c r="C158" s="8"/>
+      <c r="C158" s="8">
+        <v>3</v>
+      </c>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
-      <c r="F158" s="21">
-        <v>1</v>
-      </c>
-      <c r="G158" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H158" s="22">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="I158" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J158" s="10">
-        <v>90</v>
-      </c>
-      <c r="K158" s="11">
-        <f>H158*J158</f>
-        <v>720</v>
-      </c>
+      <c r="F158" s="21"/>
+      <c r="G158" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H158" s="22"/>
+      <c r="I158" s="8"/>
+      <c r="J158" s="10"/>
+      <c r="K158" s="8"/>
       <c r="L158" s="11"/>
       <c r="M158" s="11"/>
-      <c r="N158" s="8"/>
+      <c r="N158" s="11">
+        <f>SUM(M159:M170)</f>
+        <v>4320</v>
+      </c>
       <c r="O158" s="8"/>
-      <c r="Q158">
-        <v>1</v>
-      </c>
     </row>
     <row r="159" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8">
-        <v>3</v>
-      </c>
+      <c r="D159" s="8">
+        <v>1</v>
+      </c>
+      <c r="E159" s="8"/>
       <c r="F159" s="21"/>
-      <c r="G159" s="24" t="s">
-        <v>158</v>
+      <c r="G159" s="23" t="s">
+        <v>147</v>
       </c>
       <c r="H159" s="22"/>
       <c r="I159" s="8"/>
       <c r="J159" s="10"/>
       <c r="K159" s="8"/>
-      <c r="L159" s="11">
-        <f>SUM(K160)</f>
-        <v>720</v>
-      </c>
-      <c r="M159" s="8"/>
+      <c r="L159" s="11"/>
+      <c r="M159" s="11">
+        <f>SUM(L160:L166)</f>
+        <v>2880</v>
+      </c>
       <c r="N159" s="8"/>
-      <c r="O159" s="11"/>
+      <c r="O159" s="8"/>
     </row>
     <row r="160" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="21">
-        <v>1</v>
-      </c>
+      <c r="E160" s="8">
+        <v>1</v>
+      </c>
+      <c r="F160" s="21"/>
       <c r="G160" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H160" s="22">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="I160" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J160" s="10">
-        <v>90</v>
-      </c>
-      <c r="K160" s="11">
-        <f>H160*J160</f>
+        <v>148</v>
+      </c>
+      <c r="H160" s="22"/>
+      <c r="I160" s="8"/>
+      <c r="J160" s="10"/>
+      <c r="K160" s="8"/>
+      <c r="L160" s="11">
+        <f>SUM(K161)</f>
         <v>720</v>
       </c>
-      <c r="L160" s="11"/>
-      <c r="M160" s="8"/>
-      <c r="N160" s="8"/>
+      <c r="M160" s="11"/>
+      <c r="N160" s="11"/>
       <c r="O160" s="11"/>
-      <c r="Q160">
-        <v>1</v>
-      </c>
     </row>
     <row r="161" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
-      <c r="E161" s="8">
-        <v>4</v>
-      </c>
-      <c r="F161" s="21"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="21">
+        <v>1</v>
+      </c>
       <c r="G161" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="H161" s="22"/>
-      <c r="I161" s="8"/>
-      <c r="J161" s="10"/>
-      <c r="K161" s="8"/>
-      <c r="L161" s="11">
-        <f>SUM(K162)</f>
+        <v>5</v>
+      </c>
+      <c r="H161" s="22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I161" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J161" s="10">
+        <v>90</v>
+      </c>
+      <c r="K161" s="11">
+        <f>H161*J161</f>
         <v>720</v>
       </c>
+      <c r="L161" s="11"/>
       <c r="M161" s="11"/>
       <c r="N161" s="11"/>
       <c r="O161" s="11"/>
+      <c r="Q161">
+        <v>1</v>
+      </c>
     </row>
     <row r="162" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="21">
-        <v>1</v>
-      </c>
+      <c r="E162" s="8">
+        <v>2</v>
+      </c>
+      <c r="F162" s="21"/>
       <c r="G162" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H162" s="22">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="I162" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J162" s="10">
-        <v>90</v>
-      </c>
-      <c r="K162" s="11">
-        <f>H162*J162</f>
+        <v>149</v>
+      </c>
+      <c r="H162" s="22"/>
+      <c r="I162" s="8"/>
+      <c r="J162" s="10"/>
+      <c r="K162" s="8"/>
+      <c r="L162" s="11">
+        <f>SUM(K163)</f>
         <v>720</v>
       </c>
-      <c r="L162" s="11"/>
       <c r="M162" s="11"/>
-      <c r="N162" s="11"/>
-      <c r="O162" s="11"/>
-      <c r="Q162">
-        <v>1</v>
-      </c>
+      <c r="N162" s="8"/>
+      <c r="O162" s="8"/>
     </row>
     <row r="163" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
-      <c r="D163" s="8">
-        <v>2</v>
-      </c>
+      <c r="D163" s="8"/>
       <c r="E163" s="8"/>
-      <c r="F163" s="21"/>
+      <c r="F163" s="21">
+        <v>1</v>
+      </c>
       <c r="G163" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="H163" s="22"/>
-      <c r="I163" s="8"/>
-      <c r="J163" s="10"/>
-      <c r="K163" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="H163" s="22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I163" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J163" s="10">
+        <v>90</v>
+      </c>
+      <c r="K163" s="11">
+        <f>H163*J163</f>
+        <v>720</v>
+      </c>
       <c r="L163" s="11"/>
-      <c r="M163" s="11">
-        <f>SUM(L164)</f>
-        <v>720</v>
-      </c>
+      <c r="M163" s="11"/>
       <c r="N163" s="8"/>
       <c r="O163" s="8"/>
+      <c r="Q163">
+        <v>1</v>
+      </c>
     </row>
     <row r="164" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
-      <c r="E164" s="21">
-        <v>1</v>
-      </c>
+      <c r="E164" s="8">
+        <v>3</v>
+      </c>
+      <c r="F164" s="21"/>
       <c r="G164" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H164" s="22">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="I164" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J164" s="10">
-        <v>90</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="H164" s="22"/>
+      <c r="I164" s="8"/>
+      <c r="J164" s="10"/>
       <c r="K164" s="8"/>
       <c r="L164" s="11">
-        <f>H164*J164</f>
+        <f>SUM(K165)</f>
         <v>720</v>
       </c>
-      <c r="M164" s="11"/>
+      <c r="M164" s="8"/>
       <c r="N164" s="8"/>
-      <c r="O164" s="8"/>
-      <c r="Q164">
-        <v>1</v>
-      </c>
+      <c r="O164" s="11"/>
     </row>
     <row r="165" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
-      <c r="D165" s="8">
-        <v>3</v>
-      </c>
+      <c r="D165" s="8"/>
       <c r="E165" s="8"/>
-      <c r="F165" s="21"/>
+      <c r="F165" s="21">
+        <v>1</v>
+      </c>
       <c r="G165" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="H165" s="22"/>
-      <c r="I165" s="8"/>
-      <c r="J165" s="10"/>
-      <c r="K165" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="H165" s="22">
+        <f>Q165*8</f>
+        <v>8</v>
+      </c>
+      <c r="I165" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J165" s="10">
+        <v>90</v>
+      </c>
+      <c r="K165" s="11">
+        <f>H165*J165</f>
+        <v>720</v>
+      </c>
       <c r="L165" s="11"/>
-      <c r="M165" s="11">
-        <f>SUM(L166)</f>
-        <v>720</v>
-      </c>
+      <c r="M165" s="8"/>
       <c r="N165" s="8"/>
-      <c r="O165" s="8"/>
+      <c r="O165" s="11"/>
+      <c r="Q165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
-      <c r="E166" s="21">
-        <v>1</v>
-      </c>
+      <c r="E166" s="8">
+        <v>4</v>
+      </c>
+      <c r="F166" s="21"/>
       <c r="G166" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H166" s="22">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="I166" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J166" s="10">
-        <v>90</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="H166" s="22"/>
+      <c r="I166" s="8"/>
+      <c r="J166" s="10"/>
       <c r="K166" s="8"/>
       <c r="L166" s="11">
-        <f>H166*J166</f>
+        <f>SUM(K167)</f>
         <v>720</v>
       </c>
-      <c r="M166" s="8"/>
-      <c r="N166" s="8"/>
-      <c r="O166" s="8"/>
-      <c r="Q166">
-        <v>1</v>
-      </c>
+      <c r="M166" s="11"/>
+      <c r="N166" s="11"/>
+      <c r="O166" s="11"/>
     </row>
     <row r="167" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B167" s="8">
-        <v>4</v>
-      </c>
+      <c r="B167" s="8"/>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
-      <c r="F167" s="21"/>
-      <c r="G167" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="H167" s="22"/>
-      <c r="I167" s="8"/>
-      <c r="J167" s="10"/>
-      <c r="K167" s="8"/>
+      <c r="F167" s="21">
+        <v>1</v>
+      </c>
+      <c r="G167" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H167" s="22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I167" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J167" s="10">
+        <v>90</v>
+      </c>
+      <c r="K167" s="11">
+        <f>H167*J167</f>
+        <v>720</v>
+      </c>
       <c r="L167" s="11"/>
       <c r="M167" s="11"/>
-      <c r="N167" s="8"/>
-      <c r="O167" s="11">
-        <f>SUM(N168:N183)</f>
-        <v>16200</v>
+      <c r="N167" s="11"/>
+      <c r="O167" s="11"/>
+      <c r="Q167">
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B168" s="8"/>
-      <c r="C168" s="8">
-        <v>1</v>
-      </c>
-      <c r="D168" s="8"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="8">
+        <v>2</v>
+      </c>
       <c r="E168" s="8"/>
       <c r="F168" s="21"/>
-      <c r="G168" s="23" t="s">
-        <v>163</v>
+      <c r="G168" s="24" t="s">
+        <v>152</v>
       </c>
       <c r="H168" s="22"/>
       <c r="I168" s="8"/>
       <c r="J168" s="10"/>
       <c r="K168" s="8"/>
       <c r="L168" s="11"/>
-      <c r="M168" s="8"/>
-      <c r="N168" s="11">
-        <f>SUM(M169:M181)</f>
-        <v>10440</v>
-      </c>
+      <c r="M168" s="11">
+        <f>SUM(L169)</f>
+        <v>720</v>
+      </c>
+      <c r="N168" s="8"/>
       <c r="O168" s="8"/>
     </row>
     <row r="169" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
-      <c r="D169" s="8">
-        <v>1</v>
-      </c>
-      <c r="E169" s="8"/>
-      <c r="F169" s="21"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="21">
+        <v>1</v>
+      </c>
       <c r="G169" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="H169" s="22"/>
-      <c r="I169" s="8"/>
-      <c r="J169" s="10"/>
-      <c r="K169" s="11"/>
-      <c r="L169" s="8"/>
-      <c r="M169" s="11">
-        <f>SUM(L170)</f>
-        <v>360</v>
-      </c>
-      <c r="N169" s="11"/>
+        <v>5</v>
+      </c>
+      <c r="H169" s="22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I169" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J169" s="10">
+        <v>90</v>
+      </c>
+      <c r="K169" s="8"/>
+      <c r="L169" s="11">
+        <f>H169*J169</f>
+        <v>720</v>
+      </c>
+      <c r="M169" s="11"/>
+      <c r="N169" s="8"/>
       <c r="O169" s="8"/>
+      <c r="Q169">
+        <v>1</v>
+      </c>
     </row>
     <row r="170" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
-      <c r="D170" s="8"/>
-      <c r="E170" s="21">
-        <v>1</v>
-      </c>
+      <c r="D170" s="8">
+        <v>3</v>
+      </c>
+      <c r="E170" s="8"/>
+      <c r="F170" s="21"/>
       <c r="G170" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H170" s="22">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I170" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J170" s="10">
-        <v>90</v>
-      </c>
-      <c r="K170" s="11"/>
-      <c r="L170" s="11">
-        <f>H170*J170</f>
-        <v>360</v>
-      </c>
-      <c r="M170" s="8"/>
-      <c r="N170" s="11"/>
+        <v>153</v>
+      </c>
+      <c r="H170" s="22"/>
+      <c r="I170" s="8"/>
+      <c r="J170" s="10"/>
+      <c r="K170" s="8"/>
+      <c r="L170" s="11"/>
+      <c r="M170" s="11">
+        <f>SUM(L171)</f>
+        <v>720</v>
+      </c>
+      <c r="N170" s="8"/>
       <c r="O170" s="8"/>
-      <c r="Q170">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="171" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
-      <c r="D171" s="8">
-        <v>2</v>
-      </c>
-      <c r="E171" s="8"/>
-      <c r="F171" s="21"/>
-      <c r="G171" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="H171" s="22"/>
-      <c r="I171" s="8"/>
-      <c r="J171" s="10"/>
-      <c r="K171" s="11"/>
-      <c r="L171" s="8"/>
-      <c r="M171" s="11">
-        <f>L172</f>
-        <v>2160</v>
-      </c>
+      <c r="D171" s="8"/>
+      <c r="E171" s="21">
+        <v>1</v>
+      </c>
+      <c r="G171" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H171" s="22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I171" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J171" s="10">
+        <v>90</v>
+      </c>
+      <c r="K171" s="8"/>
+      <c r="L171" s="11">
+        <f>H171*J171</f>
+        <v>720</v>
+      </c>
+      <c r="M171" s="8"/>
       <c r="N171" s="8"/>
       <c r="O171" s="8"/>
+      <c r="Q171">
+        <v>1</v>
+      </c>
     </row>
     <row r="172" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B172" s="8"/>
+      <c r="B172" s="8">
+        <v>4</v>
+      </c>
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
-      <c r="E172" s="8">
-        <v>1</v>
-      </c>
+      <c r="E172" s="8"/>
       <c r="F172" s="21"/>
-      <c r="G172" s="24" t="s">
-        <v>166</v>
+      <c r="G172" s="23" t="s">
+        <v>154</v>
       </c>
       <c r="H172" s="22"/>
       <c r="I172" s="8"/>
       <c r="J172" s="10"/>
-      <c r="L172" s="11">
-        <f>SUM(K173)</f>
-        <v>2160</v>
-      </c>
-      <c r="M172" s="8"/>
+      <c r="K172" s="8"/>
+      <c r="L172" s="11"/>
+      <c r="M172" s="11"/>
       <c r="N172" s="8"/>
-      <c r="O172" s="8"/>
+      <c r="O172" s="11">
+        <f>SUM(N173:N188)</f>
+        <v>7560</v>
+      </c>
     </row>
     <row r="173" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B173" s="8"/>
-      <c r="C173" s="8"/>
+      <c r="C173" s="8">
+        <v>1</v>
+      </c>
       <c r="D173" s="8"/>
-      <c r="E173" s="21"/>
-      <c r="F173">
-        <v>1</v>
-      </c>
-      <c r="G173" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H173" s="22">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="I173" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J173" s="10">
-        <v>90</v>
-      </c>
-      <c r="K173" s="11">
-        <f>H173*J173</f>
-        <v>2160</v>
-      </c>
+      <c r="E173" s="8"/>
+      <c r="F173" s="21"/>
+      <c r="G173" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="H173" s="22"/>
+      <c r="I173" s="8"/>
+      <c r="J173" s="10"/>
+      <c r="K173" s="8"/>
       <c r="L173" s="11"/>
       <c r="M173" s="8"/>
-      <c r="N173" s="8"/>
+      <c r="N173" s="11">
+        <f>SUM(M174:M186)</f>
+        <v>4680</v>
+      </c>
       <c r="O173" s="8"/>
-      <c r="Q173">
-        <v>3</v>
-      </c>
     </row>
     <row r="174" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
-      <c r="D174" s="8"/>
-      <c r="E174" s="8">
-        <v>2</v>
-      </c>
+      <c r="D174" s="8">
+        <v>1</v>
+      </c>
+      <c r="E174" s="8"/>
       <c r="F174" s="21"/>
       <c r="G174" s="24" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="H174" s="22"/>
       <c r="I174" s="8"/>
       <c r="J174" s="10"/>
       <c r="K174" s="11"/>
-      <c r="L174" s="11">
-        <f>SUM(K175)</f>
-        <v>1440</v>
-      </c>
-      <c r="M174" s="11"/>
-      <c r="N174" s="8"/>
+      <c r="L174" s="8"/>
+      <c r="M174" s="11">
+        <f>SUM(L175)</f>
+        <v>360</v>
+      </c>
+      <c r="N174" s="11"/>
       <c r="O174" s="8"/>
     </row>
     <row r="175" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
       <c r="D175" s="8"/>
-      <c r="E175" s="21"/>
-      <c r="F175">
+      <c r="E175" s="21">
         <v>1</v>
       </c>
       <c r="G175" s="24" t="s">
         <v>5</v>
       </c>
       <c r="H175" s="22">
-        <f>Q175*8</f>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="I175" s="8" t="s">
         <v>76</v>
@@ -6862,36 +6989,37 @@
       <c r="J175" s="10">
         <v>90</v>
       </c>
-      <c r="K175" s="11">
+      <c r="K175" s="11"/>
+      <c r="L175" s="11">
         <f>H175*J175</f>
-        <v>1440</v>
-      </c>
-      <c r="L175" s="8"/>
-      <c r="M175" s="11"/>
-      <c r="N175" s="8"/>
+        <v>360</v>
+      </c>
+      <c r="M175" s="8"/>
+      <c r="N175" s="11"/>
       <c r="O175" s="8"/>
       <c r="Q175">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="176" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
       <c r="D176" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E176" s="8"/>
       <c r="F176" s="21"/>
-      <c r="G176" s="24" t="s">
-        <v>168</v>
-      </c>
+      <c r="G176" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="H176" s="22"/>
       <c r="I176" s="8"/>
       <c r="J176" s="10"/>
       <c r="K176" s="11"/>
-      <c r="L176" s="11"/>
+      <c r="L176" s="8"/>
       <c r="M176" s="11">
-        <f>SUM(L177)</f>
-        <v>2880</v>
+        <f>L177</f>
+        <v>720</v>
       </c>
       <c r="N176" s="8"/>
       <c r="O176" s="8"/>
@@ -6900,194 +7028,194 @@
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
       <c r="D177" s="8"/>
-      <c r="E177" s="21">
-        <v>1</v>
-      </c>
+      <c r="E177" s="8">
+        <v>1</v>
+      </c>
+      <c r="F177" s="21"/>
       <c r="G177" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H177" s="22">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="I177" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J177" s="10">
-        <v>90</v>
-      </c>
-      <c r="K177" s="11"/>
+        <v>158</v>
+      </c>
+      <c r="H177" s="22"/>
+      <c r="I177" s="8"/>
+      <c r="J177" s="10"/>
       <c r="L177" s="11">
-        <f>H177*J177</f>
-        <v>2880</v>
+        <f>SUM(K178)</f>
+        <v>720</v>
       </c>
       <c r="M177" s="8"/>
       <c r="N177" s="8"/>
       <c r="O177" s="8"/>
-      <c r="Q177">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
-      <c r="D178" s="8">
-        <v>4</v>
-      </c>
-      <c r="E178" s="8"/>
-      <c r="F178" s="21"/>
+      <c r="D178" s="8"/>
+      <c r="E178" s="21"/>
+      <c r="F178">
+        <v>1</v>
+      </c>
       <c r="G178" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="H178" s="22"/>
-      <c r="I178" s="8"/>
-      <c r="J178" s="10"/>
-      <c r="K178" s="11"/>
-      <c r="L178" s="8"/>
-      <c r="M178" s="11">
-        <f>SUM(L179)</f>
-        <v>2160</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H178" s="22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I178" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J178" s="10">
+        <v>90</v>
+      </c>
+      <c r="K178" s="11">
+        <f>H178*J178</f>
+        <v>720</v>
+      </c>
+      <c r="L178" s="11"/>
+      <c r="M178" s="8"/>
       <c r="N178" s="8"/>
       <c r="O178" s="8"/>
-    </row>
-    <row r="179" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
       <c r="D179" s="8"/>
-      <c r="E179" s="21">
-        <v>1</v>
-      </c>
+      <c r="E179" s="8">
+        <v>2</v>
+      </c>
+      <c r="F179" s="21"/>
       <c r="G179" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H179" s="22">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="I179" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J179" s="10">
-        <v>90</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="H179" s="22"/>
+      <c r="I179" s="8"/>
+      <c r="J179" s="10"/>
       <c r="K179" s="11"/>
       <c r="L179" s="11">
-        <f>H179*J179</f>
-        <v>2160</v>
-      </c>
-      <c r="M179" s="8"/>
+        <f>SUM(K180)</f>
+        <v>720</v>
+      </c>
+      <c r="M179" s="11"/>
       <c r="N179" s="8"/>
       <c r="O179" s="8"/>
-      <c r="Q179">
-        <v>3</v>
-      </c>
     </row>
     <row r="180" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
-      <c r="D180" s="8">
-        <v>5</v>
-      </c>
-      <c r="E180" s="8"/>
-      <c r="F180" s="21"/>
+      <c r="D180" s="8"/>
+      <c r="E180" s="21"/>
+      <c r="F180">
+        <v>1</v>
+      </c>
       <c r="G180" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="H180" s="22"/>
-      <c r="I180" s="8"/>
-      <c r="J180" s="10"/>
-      <c r="K180" s="11"/>
-      <c r="L180" s="11"/>
-      <c r="M180" s="11">
-        <f>SUM(L181)</f>
-        <v>2880</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H180" s="22">
+        <f>Q180*8</f>
+        <v>8</v>
+      </c>
+      <c r="I180" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J180" s="10">
+        <v>90</v>
+      </c>
+      <c r="K180" s="11">
+        <f>H180*J180</f>
+        <v>720</v>
+      </c>
+      <c r="L180" s="8"/>
+      <c r="M180" s="11"/>
       <c r="N180" s="8"/>
       <c r="O180" s="8"/>
+      <c r="Q180">
+        <v>1</v>
+      </c>
     </row>
     <row r="181" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
-      <c r="D181" s="8"/>
-      <c r="E181" s="21">
-        <v>1</v>
-      </c>
+      <c r="D181" s="8">
+        <v>3</v>
+      </c>
+      <c r="E181" s="8"/>
+      <c r="F181" s="21"/>
       <c r="G181" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H181" s="22">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="I181" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J181" s="10">
-        <v>90</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="I181" s="8"/>
+      <c r="J181" s="10"/>
       <c r="K181" s="11"/>
-      <c r="L181" s="11">
-        <f>H181*J181</f>
-        <v>2880</v>
-      </c>
-      <c r="M181" s="8"/>
+      <c r="L181" s="11"/>
+      <c r="M181" s="11">
+        <f>SUM(L182)</f>
+        <v>720</v>
+      </c>
       <c r="N181" s="8"/>
       <c r="O181" s="8"/>
-      <c r="Q181">
-        <v>4</v>
-      </c>
     </row>
     <row r="182" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B182" s="8"/>
-      <c r="C182" s="8">
-        <v>2</v>
-      </c>
+      <c r="C182" s="8"/>
       <c r="D182" s="8"/>
-      <c r="E182" s="8"/>
-      <c r="F182" s="21"/>
-      <c r="G182" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="H182" s="22"/>
-      <c r="I182" s="8"/>
-      <c r="J182" s="10"/>
+      <c r="E182" s="21">
+        <v>1</v>
+      </c>
+      <c r="G182" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H182" s="22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I182" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J182" s="10">
+        <v>90</v>
+      </c>
       <c r="K182" s="11"/>
-      <c r="L182" s="8"/>
+      <c r="L182" s="11">
+        <f>H182*J182</f>
+        <v>720</v>
+      </c>
       <c r="M182" s="8"/>
-      <c r="N182" s="11">
-        <f>SUM(M183:M189)</f>
-        <v>5760</v>
-      </c>
+      <c r="N182" s="8"/>
       <c r="O182" s="8"/>
-    </row>
-    <row r="183" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B183" s="12"/>
-      <c r="C183" s="12"/>
-      <c r="D183" s="12">
-        <v>1</v>
-      </c>
-      <c r="E183" s="12"/>
+      <c r="Q182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
+      <c r="D183" s="8">
+        <v>4</v>
+      </c>
+      <c r="E183" s="8"/>
       <c r="F183" s="21"/>
       <c r="G183" s="24" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H183" s="22"/>
-      <c r="I183" s="12"/>
+      <c r="I183" s="8"/>
       <c r="J183" s="10"/>
       <c r="K183" s="11"/>
-      <c r="L183" s="11"/>
+      <c r="L183" s="8"/>
       <c r="M183" s="11">
         <f>SUM(L184)</f>
-        <v>2880</v>
-      </c>
-      <c r="N183" s="13"/>
-      <c r="O183" s="13"/>
-    </row>
-    <row r="184" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B184" s="12"/>
-      <c r="C184" s="12"/>
-      <c r="D184" s="12"/>
+        <v>720</v>
+      </c>
+      <c r="N183" s="8"/>
+      <c r="O183" s="8"/>
+    </row>
+    <row r="184" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="8"/>
+      <c r="C184" s="8"/>
+      <c r="D184" s="8"/>
       <c r="E184" s="21">
         <v>1</v>
       </c>
@@ -7096,7 +7224,7 @@
       </c>
       <c r="H184" s="22">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I184" s="8" t="s">
         <v>76</v>
@@ -7107,42 +7235,42 @@
       <c r="K184" s="11"/>
       <c r="L184" s="11">
         <f>H184*J184</f>
-        <v>2880</v>
-      </c>
-      <c r="M184" s="13"/>
-      <c r="N184" s="13"/>
-      <c r="O184" s="13"/>
+        <v>720</v>
+      </c>
+      <c r="M184" s="8"/>
+      <c r="N184" s="8"/>
+      <c r="O184" s="8"/>
       <c r="Q184">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B185" s="12"/>
-      <c r="C185" s="12"/>
-      <c r="D185" s="12">
-        <v>2</v>
-      </c>
-      <c r="E185" s="12"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="8"/>
+      <c r="D185" s="8">
+        <v>5</v>
+      </c>
+      <c r="E185" s="8"/>
       <c r="F185" s="21"/>
       <c r="G185" s="24" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H185" s="22"/>
       <c r="I185" s="8"/>
       <c r="J185" s="10"/>
       <c r="K185" s="11"/>
-      <c r="L185" s="13"/>
+      <c r="L185" s="11"/>
       <c r="M185" s="11">
         <f>SUM(L186)</f>
-        <v>1440</v>
-      </c>
-      <c r="N185" s="13"/>
-      <c r="O185" s="13"/>
+        <v>2160</v>
+      </c>
+      <c r="N185" s="8"/>
+      <c r="O185" s="8"/>
     </row>
     <row r="186" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B186" s="12"/>
-      <c r="C186" s="12"/>
-      <c r="D186" s="12"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="8"/>
+      <c r="D186" s="8"/>
       <c r="E186" s="21">
         <v>1</v>
       </c>
@@ -7151,7 +7279,7 @@
       </c>
       <c r="H186" s="22">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I186" s="8" t="s">
         <v>76</v>
@@ -7162,555 +7290,547 @@
       <c r="K186" s="11"/>
       <c r="L186" s="11">
         <f>H186*J186</f>
-        <v>1440</v>
-      </c>
-      <c r="M186" s="13"/>
-      <c r="N186" s="13"/>
-      <c r="O186" s="13"/>
+        <v>2160</v>
+      </c>
+      <c r="M186" s="8"/>
+      <c r="N186" s="8"/>
+      <c r="O186" s="8"/>
       <c r="Q186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B187" s="8"/>
+      <c r="C187" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="187" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B187" s="12"/>
-      <c r="C187" s="12"/>
-      <c r="D187" s="12">
-        <v>3</v>
-      </c>
-      <c r="E187" s="12"/>
+      <c r="D187" s="8"/>
+      <c r="E187" s="8"/>
       <c r="F187" s="21"/>
-      <c r="G187" s="24" t="s">
-        <v>174</v>
+      <c r="G187" s="23" t="s">
+        <v>163</v>
       </c>
       <c r="H187" s="22"/>
+      <c r="I187" s="8"/>
       <c r="J187" s="10"/>
       <c r="K187" s="11"/>
-      <c r="L187" s="11"/>
-      <c r="M187" s="11">
-        <f>SUM(L188)</f>
-        <v>720</v>
-      </c>
-      <c r="N187" s="13"/>
-      <c r="O187" s="13"/>
+      <c r="L187" s="8"/>
+      <c r="M187" s="8"/>
+      <c r="N187" s="11">
+        <f>SUM(M188:M189)</f>
+        <v>2880</v>
+      </c>
+      <c r="O187" s="8"/>
     </row>
     <row r="188" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B188" s="12"/>
       <c r="C188" s="12"/>
-      <c r="D188" s="12"/>
-      <c r="E188" s="21">
-        <v>1</v>
-      </c>
+      <c r="D188" s="12">
+        <v>1</v>
+      </c>
+      <c r="E188" s="12"/>
+      <c r="F188" s="21"/>
       <c r="G188" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H188" s="22">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="I188" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J188" s="10">
-        <v>90</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="H188" s="22"/>
+      <c r="I188" s="12"/>
+      <c r="J188" s="10"/>
       <c r="K188" s="11"/>
-      <c r="L188" s="11">
-        <f>H188*J188</f>
-        <v>720</v>
-      </c>
-      <c r="M188" s="13"/>
+      <c r="L188" s="11"/>
+      <c r="M188" s="11">
+        <f>SUM(L189)</f>
+        <v>2880</v>
+      </c>
       <c r="N188" s="13"/>
       <c r="O188" s="13"/>
-      <c r="Q188">
-        <v>1</v>
-      </c>
     </row>
     <row r="189" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B189" s="12"/>
       <c r="C189" s="12"/>
-      <c r="D189" s="12">
-        <v>4</v>
-      </c>
-      <c r="E189" s="12"/>
-      <c r="F189" s="21"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="21">
+        <v>1</v>
+      </c>
       <c r="G189" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="H189" s="22"/>
-      <c r="I189" s="8"/>
-      <c r="J189" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="H189" s="22">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="I189" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J189" s="10">
+        <v>90</v>
+      </c>
       <c r="K189" s="11"/>
-      <c r="L189" s="13"/>
-      <c r="M189" s="11">
-        <f>SUM(L190)</f>
-        <v>720</v>
-      </c>
+      <c r="L189" s="11">
+        <f>H189*J189</f>
+        <v>2880</v>
+      </c>
+      <c r="M189" s="13"/>
       <c r="N189" s="13"/>
       <c r="O189" s="13"/>
+      <c r="Q189">
+        <v>4</v>
+      </c>
     </row>
     <row r="190" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B190" s="12"/>
+      <c r="B190" s="12">
+        <v>5</v>
+      </c>
       <c r="C190" s="12"/>
       <c r="D190" s="12"/>
-      <c r="E190" s="21">
-        <v>1</v>
-      </c>
-      <c r="G190" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H190" s="22">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="I190" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J190" s="10">
-        <v>90</v>
-      </c>
+      <c r="E190" s="12"/>
+      <c r="F190" s="21"/>
+      <c r="G190" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="H190" s="22"/>
+      <c r="I190" s="12"/>
+      <c r="J190" s="10"/>
       <c r="K190" s="11"/>
-      <c r="L190" s="11">
-        <f>H190*J190</f>
-        <v>720</v>
-      </c>
+      <c r="L190" s="13"/>
       <c r="M190" s="13"/>
       <c r="N190" s="13"/>
-      <c r="O190" s="13"/>
-      <c r="Q190">
-        <v>1</v>
+      <c r="O190" s="13">
+        <f>SUM(N191:N203)</f>
+        <v>21600</v>
       </c>
     </row>
     <row r="191" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B191" s="12">
-        <v>5</v>
-      </c>
-      <c r="C191" s="12"/>
+      <c r="B191" s="12"/>
+      <c r="C191" s="12">
+        <v>1</v>
+      </c>
       <c r="D191" s="12"/>
       <c r="E191" s="12"/>
       <c r="F191" s="21"/>
-      <c r="G191" s="23" t="s">
-        <v>176</v>
+      <c r="G191" s="24" t="s">
+        <v>187</v>
       </c>
       <c r="H191" s="22"/>
       <c r="I191" s="12"/>
       <c r="J191" s="10"/>
       <c r="K191" s="11"/>
-      <c r="L191" s="13"/>
+      <c r="L191" s="11"/>
       <c r="M191" s="13"/>
-      <c r="N191" s="13"/>
-      <c r="O191" s="13">
-        <f>SUM(N192:N206)</f>
-        <v>25920</v>
-      </c>
+      <c r="N191" s="11">
+        <f>SUM(M192)</f>
+        <v>7200</v>
+      </c>
+      <c r="O191" s="13"/>
     </row>
     <row r="192" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B192" s="12"/>
-      <c r="C192" s="12">
-        <v>1</v>
-      </c>
-      <c r="D192" s="12"/>
+      <c r="C192" s="12"/>
+      <c r="D192" s="12">
+        <v>1</v>
+      </c>
       <c r="E192" s="12"/>
       <c r="F192" s="21"/>
       <c r="G192" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="H192" s="22"/>
-      <c r="I192" s="12"/>
-      <c r="J192" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="H192" s="22">
+        <f>Q192*8</f>
+        <v>80</v>
+      </c>
+      <c r="I192" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J192" s="10">
+        <v>90</v>
+      </c>
       <c r="K192" s="11"/>
       <c r="L192" s="11"/>
-      <c r="M192" s="13"/>
-      <c r="N192" s="11">
-        <f>SUM(M193)</f>
+      <c r="M192" s="11">
+        <f>H192*J192</f>
         <v>7200</v>
       </c>
+      <c r="N192" s="13"/>
       <c r="O192" s="13"/>
+      <c r="Q192">
+        <v>10</v>
+      </c>
     </row>
     <row r="193" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B193" s="12"/>
-      <c r="C193" s="12"/>
-      <c r="D193" s="12">
-        <v>1</v>
-      </c>
+      <c r="C193" s="12">
+        <v>2</v>
+      </c>
+      <c r="D193" s="12"/>
       <c r="E193" s="12"/>
       <c r="F193" s="21"/>
       <c r="G193" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H193" s="22">
-        <f>Q193*8</f>
-        <v>80</v>
-      </c>
-      <c r="I193" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J193" s="10">
-        <v>90</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="H193" s="22"/>
+      <c r="I193" s="8"/>
+      <c r="J193" s="10"/>
       <c r="K193" s="11"/>
-      <c r="L193" s="11"/>
-      <c r="M193" s="11">
-        <f>H193*J193</f>
-        <v>7200</v>
-      </c>
-      <c r="N193" s="13"/>
+      <c r="L193" s="13"/>
+      <c r="M193" s="13"/>
+      <c r="N193" s="11">
+        <f>SUM(M194)</f>
+        <v>3600</v>
+      </c>
       <c r="O193" s="13"/>
-      <c r="Q193">
-        <v>10</v>
-      </c>
     </row>
     <row r="194" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B194" s="12"/>
-      <c r="C194" s="12">
-        <v>2</v>
-      </c>
-      <c r="D194" s="12"/>
+      <c r="C194" s="12"/>
+      <c r="D194" s="12">
+        <v>1</v>
+      </c>
       <c r="E194" s="12"/>
       <c r="F194" s="21"/>
       <c r="G194" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="H194" s="22"/>
-      <c r="I194" s="8"/>
-      <c r="J194" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="H194" s="22">
+        <f>Q194*8</f>
+        <v>40</v>
+      </c>
+      <c r="I194" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J194" s="10">
+        <v>90</v>
+      </c>
       <c r="K194" s="11"/>
       <c r="L194" s="13"/>
-      <c r="M194" s="13"/>
-      <c r="N194" s="11">
-        <f>SUM(M195)</f>
+      <c r="M194" s="11">
+        <f>H194*J194</f>
         <v>3600</v>
       </c>
+      <c r="N194" s="13"/>
       <c r="O194" s="13"/>
+      <c r="Q194">
+        <v>5</v>
+      </c>
     </row>
     <row r="195" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B195" s="12"/>
-      <c r="C195" s="12"/>
-      <c r="D195" s="12">
-        <v>1</v>
-      </c>
+      <c r="C195" s="12">
+        <v>3</v>
+      </c>
+      <c r="D195" s="12"/>
       <c r="E195" s="12"/>
       <c r="F195" s="21"/>
       <c r="G195" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H195" s="22">
-        <f>Q195*8</f>
-        <v>40</v>
-      </c>
-      <c r="I195" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J195" s="10">
-        <v>90</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="H195" s="22"/>
+      <c r="I195" s="12"/>
+      <c r="J195" s="10"/>
       <c r="K195" s="11"/>
-      <c r="L195" s="13"/>
-      <c r="M195" s="11">
-        <f>H195*J195</f>
-        <v>3600</v>
-      </c>
-      <c r="N195" s="13"/>
+      <c r="L195" s="11"/>
+      <c r="M195" s="13"/>
+      <c r="N195" s="11">
+        <f>SUM(M196)</f>
+        <v>2880</v>
+      </c>
       <c r="O195" s="13"/>
-      <c r="Q195">
-        <v>5</v>
-      </c>
     </row>
     <row r="196" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B196" s="12"/>
-      <c r="C196" s="12">
-        <v>3</v>
-      </c>
-      <c r="D196" s="12"/>
+      <c r="C196" s="12"/>
+      <c r="D196" s="12">
+        <v>1</v>
+      </c>
       <c r="E196" s="12"/>
       <c r="F196" s="21"/>
       <c r="G196" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="H196" s="22"/>
-      <c r="I196" s="12"/>
-      <c r="J196" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="H196" s="22">
+        <f>Q196*8</f>
+        <v>32</v>
+      </c>
+      <c r="I196" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J196" s="10">
+        <v>90</v>
+      </c>
       <c r="K196" s="11"/>
       <c r="L196" s="11"/>
-      <c r="M196" s="13"/>
-      <c r="N196" s="11">
-        <f>SUM(M197)</f>
+      <c r="M196" s="11">
+        <f>H196*J196</f>
         <v>2880</v>
       </c>
+      <c r="N196" s="13"/>
       <c r="O196" s="13"/>
+      <c r="Q196">
+        <v>4</v>
+      </c>
     </row>
     <row r="197" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B197" s="12"/>
-      <c r="C197" s="12"/>
-      <c r="D197" s="12">
-        <v>1</v>
-      </c>
+      <c r="C197" s="12">
+        <v>4</v>
+      </c>
+      <c r="D197" s="12"/>
       <c r="E197" s="12"/>
       <c r="F197" s="21"/>
       <c r="G197" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H197" s="22">
-        <f>Q197*8</f>
-        <v>32</v>
-      </c>
-      <c r="I197" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J197" s="10">
-        <v>90</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="H197" s="22"/>
+      <c r="I197" s="8"/>
+      <c r="J197" s="10"/>
       <c r="K197" s="11"/>
-      <c r="L197" s="11"/>
-      <c r="M197" s="11">
-        <f>H197*J197</f>
-        <v>2880</v>
-      </c>
-      <c r="N197" s="13"/>
+      <c r="L197" s="13"/>
+      <c r="M197" s="13"/>
+      <c r="N197" s="11">
+        <f>SUM(M198)</f>
+        <v>3600</v>
+      </c>
       <c r="O197" s="13"/>
-      <c r="Q197">
-        <v>4</v>
-      </c>
     </row>
     <row r="198" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B198" s="12"/>
-      <c r="C198" s="12">
-        <v>4</v>
-      </c>
-      <c r="D198" s="12"/>
+      <c r="C198" s="12"/>
+      <c r="D198" s="12">
+        <v>1</v>
+      </c>
       <c r="E198" s="12"/>
       <c r="F198" s="21"/>
       <c r="G198" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="H198" s="22"/>
-      <c r="I198" s="8"/>
-      <c r="J198" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="H198" s="22">
+        <f>Q198*8</f>
+        <v>40</v>
+      </c>
+      <c r="I198" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J198" s="10">
+        <v>90</v>
+      </c>
       <c r="K198" s="11"/>
       <c r="L198" s="13"/>
-      <c r="M198" s="13"/>
-      <c r="N198" s="11">
-        <f>SUM(M199)</f>
+      <c r="M198" s="11">
+        <f>H198*J198</f>
         <v>3600</v>
       </c>
+      <c r="N198" s="13"/>
       <c r="O198" s="13"/>
+      <c r="Q198">
+        <v>5</v>
+      </c>
     </row>
     <row r="199" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B199" s="12"/>
-      <c r="C199" s="12"/>
-      <c r="D199" s="12">
-        <v>1</v>
-      </c>
+      <c r="C199" s="12">
+        <v>5</v>
+      </c>
+      <c r="D199" s="12"/>
       <c r="E199" s="12"/>
       <c r="F199" s="21"/>
       <c r="G199" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H199" s="22">
-        <f>Q199*8</f>
-        <v>40</v>
-      </c>
-      <c r="I199" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J199" s="10">
-        <v>90</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="H199" s="22"/>
+      <c r="I199" s="12"/>
+      <c r="J199" s="10"/>
       <c r="K199" s="11"/>
-      <c r="L199" s="13"/>
-      <c r="M199" s="11">
-        <f>H199*J199</f>
-        <v>3600</v>
-      </c>
-      <c r="N199" s="13"/>
+      <c r="L199" s="11"/>
+      <c r="M199" s="13"/>
+      <c r="N199" s="11">
+        <f>SUM(M200)</f>
+        <v>2160</v>
+      </c>
       <c r="O199" s="13"/>
-      <c r="Q199">
-        <v>5</v>
-      </c>
     </row>
     <row r="200" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B200" s="12"/>
-      <c r="C200" s="12">
-        <v>5</v>
-      </c>
-      <c r="D200" s="12"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12">
+        <v>1</v>
+      </c>
       <c r="E200" s="12"/>
       <c r="F200" s="21"/>
       <c r="G200" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="H200" s="22"/>
-      <c r="I200" s="12"/>
-      <c r="J200" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="H200" s="22">
+        <f>Q200*8</f>
+        <v>24</v>
+      </c>
+      <c r="I200" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J200" s="10">
+        <v>90</v>
+      </c>
       <c r="K200" s="11"/>
       <c r="L200" s="11"/>
-      <c r="M200" s="13"/>
-      <c r="N200" s="11">
-        <f>SUM(M201)</f>
+      <c r="M200" s="11">
+        <f>H200*J200</f>
         <v>2160</v>
       </c>
+      <c r="N200" s="13"/>
       <c r="O200" s="13"/>
+      <c r="Q200">
+        <v>3</v>
+      </c>
     </row>
     <row r="201" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B201" s="12"/>
-      <c r="C201" s="12"/>
-      <c r="D201" s="12">
-        <v>1</v>
-      </c>
+      <c r="C201" s="12">
+        <v>6</v>
+      </c>
+      <c r="D201" s="12"/>
       <c r="E201" s="12"/>
       <c r="F201" s="21"/>
-      <c r="G201" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H201" s="22">
-        <f>Q201*8</f>
-        <v>24</v>
-      </c>
-      <c r="I201" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J201" s="10">
-        <v>90</v>
-      </c>
+      <c r="G201" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="H201" s="22"/>
+      <c r="I201" s="8"/>
+      <c r="J201" s="10"/>
       <c r="K201" s="11"/>
-      <c r="L201" s="11"/>
-      <c r="M201" s="11">
-        <f>H201*J201</f>
+      <c r="L201" s="13"/>
+      <c r="M201" s="13"/>
+      <c r="N201" s="13">
+        <f>SUM(M202:M203)</f>
         <v>2160</v>
       </c>
-      <c r="N201" s="13"/>
       <c r="O201" s="13"/>
-      <c r="Q201">
-        <v>3</v>
-      </c>
     </row>
     <row r="202" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B202" s="12"/>
-      <c r="C202" s="12">
-        <v>6</v>
-      </c>
-      <c r="D202" s="12"/>
+      <c r="C202" s="12"/>
+      <c r="D202" s="12">
+        <v>1</v>
+      </c>
       <c r="E202" s="12"/>
       <c r="F202" s="21"/>
-      <c r="G202" s="23" t="s">
-        <v>208</v>
+      <c r="G202" s="24" t="s">
+        <v>193</v>
       </c>
       <c r="H202" s="22"/>
       <c r="I202" s="8"/>
       <c r="J202" s="10"/>
       <c r="K202" s="11"/>
       <c r="L202" s="13"/>
-      <c r="M202" s="13"/>
-      <c r="N202" s="13">
-        <f>SUM(M203:M210)</f>
-        <v>6480</v>
-      </c>
+      <c r="M202" s="11">
+        <f>SUM(L203)</f>
+        <v>2160</v>
+      </c>
+      <c r="N202" s="13"/>
       <c r="O202" s="13"/>
     </row>
     <row r="203" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
-      <c r="D203" s="12">
-        <v>1</v>
-      </c>
-      <c r="E203" s="12"/>
+      <c r="E203" s="12">
+        <v>1</v>
+      </c>
       <c r="F203" s="21"/>
       <c r="G203" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="H203" s="22"/>
-      <c r="I203" s="8"/>
-      <c r="J203" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="H203" s="22">
+        <f>Q203*8</f>
+        <v>24</v>
+      </c>
+      <c r="I203" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J203" s="10">
+        <v>90</v>
+      </c>
       <c r="K203" s="11"/>
-      <c r="L203" s="13"/>
-      <c r="M203" s="11">
-        <f>SUM(L204)</f>
+      <c r="L203" s="11">
+        <f>H203*J203</f>
         <v>2160</v>
       </c>
+      <c r="M203" s="13"/>
       <c r="N203" s="13"/>
       <c r="O203" s="13"/>
+      <c r="Q203">
+        <v>3</v>
+      </c>
     </row>
     <row r="204" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B204" s="12"/>
+      <c r="B204" s="12">
+        <v>6</v>
+      </c>
       <c r="C204" s="12"/>
-      <c r="E204" s="12">
-        <v>1</v>
-      </c>
+      <c r="D204" s="12"/>
+      <c r="E204" s="12"/>
       <c r="F204" s="21"/>
-      <c r="G204" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H204" s="22">
-        <f>Q204*8</f>
-        <v>24</v>
-      </c>
-      <c r="I204" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J204" s="10">
-        <v>90</v>
-      </c>
+      <c r="G204" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="H204" s="22"/>
+      <c r="I204" s="8"/>
+      <c r="J204" s="10"/>
       <c r="K204" s="11"/>
-      <c r="L204" s="11">
-        <f>H204*J204</f>
-        <v>2160</v>
-      </c>
+      <c r="L204" s="13"/>
       <c r="M204" s="13"/>
       <c r="N204" s="13"/>
-      <c r="O204" s="13"/>
-      <c r="Q204">
-        <v>3</v>
+      <c r="O204" s="13">
+        <f>SUM(N205:N223)</f>
+        <v>8640</v>
       </c>
     </row>
     <row r="205" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B205" s="12"/>
-      <c r="C205" s="12"/>
-      <c r="D205" s="12">
-        <v>2</v>
-      </c>
-      <c r="E205" s="12"/>
+      <c r="C205" s="12">
+        <v>1</v>
+      </c>
+      <c r="D205" s="12"/>
+      <c r="E205" s="21"/>
       <c r="F205" s="21"/>
       <c r="G205" s="24" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="H205" s="22"/>
       <c r="I205" s="8"/>
       <c r="J205" s="10"/>
       <c r="K205" s="11"/>
       <c r="L205" s="13"/>
-      <c r="M205" s="11">
-        <f>SUM(L206)</f>
+      <c r="M205" s="13"/>
+      <c r="N205" s="11">
+        <f>SUM(M206)</f>
         <v>1440</v>
       </c>
-      <c r="N205" s="13"/>
       <c r="O205" s="13"/>
     </row>
     <row r="206" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B206" s="12"/>
       <c r="C206" s="12"/>
-      <c r="D206" s="12"/>
-      <c r="E206" s="12">
-        <v>1</v>
-      </c>
+      <c r="D206" s="12">
+        <v>1</v>
+      </c>
+      <c r="E206" s="21"/>
       <c r="F206" s="21"/>
       <c r="G206" s="24" t="s">
         <v>5</v>
       </c>
       <c r="H206" s="22">
-        <f>Q206*8</f>
+        <f t="shared" ref="H206:H237" si="2">Q206*8</f>
         <v>16</v>
       </c>
-      <c r="I206" s="12" t="s">
+      <c r="I206" s="8" t="s">
         <v>76</v>
       </c>
       <c r="J206" s="10">
         <v>90</v>
       </c>
       <c r="K206" s="11"/>
-      <c r="L206" s="11">
+      <c r="L206" s="13"/>
+      <c r="M206" s="11">
         <f>H206*J206</f>
         <v>1440</v>
       </c>
-      <c r="M206" s="13"/>
       <c r="N206" s="13"/>
       <c r="O206" s="13"/>
       <c r="Q206">
@@ -7719,40 +7839,41 @@
     </row>
     <row r="207" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B207" s="12"/>
-      <c r="C207" s="12"/>
-      <c r="D207" s="12">
-        <v>3</v>
-      </c>
-      <c r="E207" s="12"/>
+      <c r="C207" s="12">
+        <v>2</v>
+      </c>
+      <c r="D207" s="12"/>
+      <c r="E207" s="21"/>
       <c r="F207" s="21"/>
       <c r="G207" s="24" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="H207" s="22"/>
       <c r="I207" s="8"/>
       <c r="J207" s="10"/>
       <c r="K207" s="11"/>
       <c r="L207" s="13"/>
-      <c r="M207" s="11">
-        <f>SUM(L208)</f>
-        <v>1440</v>
-      </c>
-      <c r="N207" s="13"/>
+      <c r="M207" s="13"/>
+      <c r="N207" s="11">
+        <f>SUM(M208)</f>
+        <v>2160</v>
+      </c>
       <c r="O207" s="13"/>
     </row>
     <row r="208" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B208" s="12"/>
       <c r="C208" s="12"/>
-      <c r="D208" s="12"/>
-      <c r="E208" s="21">
-        <v>1</v>
-      </c>
+      <c r="D208" s="12">
+        <v>1</v>
+      </c>
+      <c r="E208" s="21"/>
+      <c r="F208" s="21"/>
       <c r="G208" s="24" t="s">
         <v>5</v>
       </c>
       <c r="H208" s="22">
-        <f>Q208*8</f>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="I208" s="8" t="s">
         <v>76</v>
@@ -7761,52 +7882,53 @@
         <v>90</v>
       </c>
       <c r="K208" s="11"/>
-      <c r="L208" s="11">
+      <c r="L208" s="13"/>
+      <c r="M208" s="11">
         <f>H208*J208</f>
-        <v>1440</v>
-      </c>
-      <c r="M208" s="13"/>
+        <v>2160</v>
+      </c>
       <c r="N208" s="13"/>
       <c r="O208" s="13"/>
       <c r="Q208">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B209" s="12"/>
-      <c r="C209" s="12"/>
-      <c r="D209" s="12">
-        <v>4</v>
-      </c>
-      <c r="E209" s="12"/>
+      <c r="C209" s="12">
+        <v>3</v>
+      </c>
+      <c r="D209" s="12"/>
+      <c r="E209" s="21"/>
       <c r="F209" s="21"/>
       <c r="G209" s="24" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="H209" s="22"/>
       <c r="I209" s="8"/>
       <c r="J209" s="10"/>
       <c r="K209" s="11"/>
       <c r="L209" s="13"/>
-      <c r="M209" s="11">
-        <f>SUM(L210)</f>
+      <c r="M209" s="13"/>
+      <c r="N209" s="11">
+        <f>SUM(M210)</f>
         <v>1440</v>
       </c>
-      <c r="N209" s="13"/>
       <c r="O209" s="13"/>
     </row>
     <row r="210" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B210" s="12"/>
       <c r="C210" s="12"/>
-      <c r="D210" s="12"/>
-      <c r="E210" s="21">
-        <v>1</v>
-      </c>
+      <c r="D210" s="12">
+        <v>1</v>
+      </c>
+      <c r="E210" s="21"/>
+      <c r="F210" s="21"/>
       <c r="G210" s="24" t="s">
         <v>5</v>
       </c>
       <c r="H210" s="22">
-        <f t="shared" ref="H210:H250" si="2">Q210*8</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I210" s="8" t="s">
@@ -7816,11 +7938,11 @@
         <v>90</v>
       </c>
       <c r="K210" s="11"/>
-      <c r="L210" s="11">
+      <c r="L210" s="13"/>
+      <c r="M210" s="11">
         <f>H210*J210</f>
         <v>1440</v>
       </c>
-      <c r="M210" s="13"/>
       <c r="N210" s="13"/>
       <c r="O210" s="13"/>
       <c r="Q210">
@@ -7828,15 +7950,15 @@
       </c>
     </row>
     <row r="211" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B211" s="12">
-        <v>6</v>
-      </c>
-      <c r="C211" s="12"/>
+      <c r="B211" s="12"/>
+      <c r="C211" s="12">
+        <v>4</v>
+      </c>
       <c r="D211" s="12"/>
-      <c r="E211" s="12"/>
+      <c r="E211" s="21"/>
       <c r="F211" s="21"/>
       <c r="G211" s="23" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="H211" s="22"/>
       <c r="I211" s="8"/>
@@ -7845,48 +7967,43 @@
       <c r="L211" s="13"/>
       <c r="M211" s="13"/>
       <c r="N211" s="13"/>
-      <c r="O211" s="13">
-        <f>SUM(N212:N230)</f>
-        <v>8640</v>
-      </c>
-    </row>
-    <row r="212" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O211" s="13"/>
+    </row>
+    <row r="212" spans="2:17" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B212" s="12"/>
-      <c r="C212" s="12">
-        <v>1</v>
-      </c>
-      <c r="D212" s="12"/>
-      <c r="E212" s="21"/>
+      <c r="C212" s="12"/>
+      <c r="D212" s="12">
+        <v>1</v>
+      </c>
       <c r="F212" s="21"/>
       <c r="G212" s="24" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H212" s="22"/>
       <c r="I212" s="8"/>
       <c r="J212" s="10"/>
       <c r="K212" s="11"/>
       <c r="L212" s="13"/>
-      <c r="M212" s="13"/>
-      <c r="N212" s="11">
-        <f>SUM(M213)</f>
-        <v>1440</v>
-      </c>
+      <c r="M212" s="11">
+        <f>SUM(L213)</f>
+        <v>720</v>
+      </c>
+      <c r="N212" s="13"/>
       <c r="O212" s="13"/>
     </row>
     <row r="213" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B213" s="12"/>
       <c r="C213" s="12"/>
-      <c r="D213" s="12">
-        <v>1</v>
-      </c>
-      <c r="E213" s="21"/>
+      <c r="E213" s="12">
+        <v>1</v>
+      </c>
       <c r="F213" s="21"/>
       <c r="G213" s="24" t="s">
         <v>5</v>
       </c>
       <c r="H213" s="22">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I213" s="8" t="s">
         <v>76</v>
@@ -7895,27 +8012,27 @@
         <v>90</v>
       </c>
       <c r="K213" s="11"/>
-      <c r="L213" s="13"/>
-      <c r="M213" s="11">
+      <c r="L213" s="11">
         <f>H213*J213</f>
-        <v>1440</v>
-      </c>
+        <v>720</v>
+      </c>
+      <c r="M213" s="13"/>
       <c r="N213" s="13"/>
       <c r="O213" s="13"/>
       <c r="Q213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B214" s="12"/>
+      <c r="C214" s="12"/>
+      <c r="D214" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="214" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B214" s="12"/>
-      <c r="C214" s="12">
-        <v>2</v>
-      </c>
-      <c r="D214" s="12"/>
       <c r="E214" s="21"/>
       <c r="F214" s="21"/>
-      <c r="G214" s="24" t="s">
-        <v>197</v>
+      <c r="G214" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="H214" s="22"/>
       <c r="I214" s="8"/>
@@ -7923,156 +8040,157 @@
       <c r="K214" s="11"/>
       <c r="L214" s="13"/>
       <c r="M214" s="13"/>
-      <c r="N214" s="11">
-        <f>SUM(M215)</f>
-        <v>2160</v>
-      </c>
+      <c r="N214" s="13"/>
       <c r="O214" s="13"/>
     </row>
-    <row r="215" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:17" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B215" s="12"/>
       <c r="C215" s="12"/>
-      <c r="D215" s="12">
-        <v>1</v>
-      </c>
-      <c r="E215" s="21"/>
+      <c r="D215" s="12"/>
+      <c r="E215" s="21">
+        <v>1</v>
+      </c>
       <c r="F215" s="21"/>
       <c r="G215" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H215" s="22">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="I215" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J215" s="10">
-        <v>90</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="H215" s="22"/>
+      <c r="I215" s="8"/>
+      <c r="J215" s="10"/>
       <c r="K215" s="11"/>
-      <c r="L215" s="13"/>
-      <c r="M215" s="11">
-        <f>H215*J215</f>
-        <v>2160</v>
-      </c>
+      <c r="L215" s="11">
+        <f>SUM(K216)</f>
+        <v>720</v>
+      </c>
+      <c r="M215" s="13"/>
       <c r="N215" s="13"/>
       <c r="O215" s="13"/>
-      <c r="Q215">
-        <v>3</v>
-      </c>
     </row>
     <row r="216" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B216" s="12"/>
-      <c r="C216" s="12">
-        <v>3</v>
-      </c>
+      <c r="C216" s="12"/>
       <c r="D216" s="12"/>
-      <c r="E216" s="21"/>
-      <c r="F216" s="21"/>
+      <c r="F216" s="12">
+        <v>1</v>
+      </c>
       <c r="G216" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="H216" s="22"/>
-      <c r="I216" s="8"/>
-      <c r="J216" s="10"/>
-      <c r="K216" s="11"/>
+        <v>5</v>
+      </c>
+      <c r="H216" s="22">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I216" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J216" s="10">
+        <v>90</v>
+      </c>
+      <c r="K216" s="11">
+        <f>H216*J216</f>
+        <v>720</v>
+      </c>
       <c r="L216" s="13"/>
       <c r="M216" s="13"/>
-      <c r="N216" s="11">
-        <f>SUM(M217)</f>
-        <v>1440</v>
-      </c>
+      <c r="N216" s="13"/>
       <c r="O216" s="13"/>
-    </row>
-    <row r="217" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="2:17" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B217" s="12"/>
       <c r="C217" s="12"/>
-      <c r="D217" s="12">
-        <v>1</v>
-      </c>
-      <c r="E217" s="21"/>
+      <c r="D217" s="12"/>
+      <c r="E217" s="21">
+        <v>2</v>
+      </c>
       <c r="F217" s="21"/>
       <c r="G217" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H217" s="22">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="I217" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J217" s="10">
-        <v>90</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="H217" s="22"/>
+      <c r="I217" s="8"/>
+      <c r="J217" s="10"/>
       <c r="K217" s="11"/>
-      <c r="L217" s="13"/>
-      <c r="M217" s="11">
-        <f>H217*J217</f>
-        <v>1440</v>
-      </c>
+      <c r="L217" s="11">
+        <f>SUM(K218)</f>
+        <v>720</v>
+      </c>
+      <c r="M217" s="13"/>
       <c r="N217" s="13"/>
       <c r="O217" s="13"/>
-      <c r="Q217">
-        <v>2</v>
-      </c>
     </row>
     <row r="218" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B218" s="12"/>
-      <c r="C218" s="12">
-        <v>4</v>
-      </c>
+      <c r="C218" s="12"/>
       <c r="D218" s="12"/>
       <c r="E218" s="21"/>
-      <c r="F218" s="21"/>
-      <c r="G218" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="H218" s="22"/>
-      <c r="I218" s="8"/>
-      <c r="J218" s="10"/>
-      <c r="K218" s="11"/>
+      <c r="F218" s="12">
+        <v>1</v>
+      </c>
+      <c r="G218" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H218" s="22">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I218" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J218" s="10">
+        <v>90</v>
+      </c>
+      <c r="K218" s="11">
+        <f>H218*J218</f>
+        <v>720</v>
+      </c>
       <c r="L218" s="13"/>
       <c r="M218" s="13"/>
       <c r="N218" s="13"/>
       <c r="O218" s="13"/>
+      <c r="Q218">
+        <v>1</v>
+      </c>
     </row>
     <row r="219" spans="2:17" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B219" s="12"/>
       <c r="C219" s="12"/>
-      <c r="D219" s="12">
-        <v>1</v>
+      <c r="D219" s="12"/>
+      <c r="E219" s="21">
+        <v>3</v>
       </c>
       <c r="F219" s="21"/>
       <c r="G219" s="24" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="H219" s="22"/>
       <c r="I219" s="8"/>
       <c r="J219" s="10"/>
       <c r="K219" s="11"/>
-      <c r="L219" s="13"/>
-      <c r="M219" s="11">
-        <f>SUM(L220)</f>
-        <v>720</v>
-      </c>
+      <c r="L219" s="11">
+        <f>SUM(K220)</f>
+        <v>2160</v>
+      </c>
+      <c r="M219" s="13"/>
       <c r="N219" s="13"/>
       <c r="O219" s="13"/>
     </row>
     <row r="220" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B220" s="12"/>
       <c r="C220" s="12"/>
-      <c r="E220" s="12">
-        <v>1</v>
-      </c>
-      <c r="F220" s="21"/>
+      <c r="D220" s="12"/>
+      <c r="E220" s="21"/>
+      <c r="F220" s="12">
+        <v>1</v>
+      </c>
       <c r="G220" s="24" t="s">
         <v>5</v>
       </c>
       <c r="H220" s="22">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I220" s="8" t="s">
         <v>76</v>
@@ -8080,28 +8198,28 @@
       <c r="J220" s="10">
         <v>90</v>
       </c>
-      <c r="K220" s="11"/>
-      <c r="L220" s="11">
+      <c r="K220" s="11">
         <f>H220*J220</f>
-        <v>720</v>
-      </c>
+        <v>2160</v>
+      </c>
+      <c r="L220" s="13"/>
       <c r="M220" s="13"/>
       <c r="N220" s="13"/>
       <c r="O220" s="13"/>
       <c r="Q220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B221" s="12"/>
-      <c r="C221" s="12"/>
-      <c r="D221" s="12">
-        <v>2</v>
-      </c>
-      <c r="E221" s="21"/>
+      <c r="C221" s="12">
+        <v>5</v>
+      </c>
+      <c r="D221" s="12"/>
+      <c r="E221" s="12"/>
       <c r="F221" s="21"/>
       <c r="G221" s="23" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="H221" s="22"/>
       <c r="I221" s="8"/>
@@ -8109,29 +8227,31 @@
       <c r="K221" s="11"/>
       <c r="L221" s="13"/>
       <c r="M221" s="13"/>
-      <c r="N221" s="13"/>
+      <c r="N221" s="13">
+        <f>SUM(M222:M224)</f>
+        <v>3600</v>
+      </c>
       <c r="O221" s="13"/>
     </row>
-    <row r="222" spans="2:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B222" s="12"/>
       <c r="C222" s="12"/>
-      <c r="D222" s="12"/>
-      <c r="E222" s="21">
-        <v>1</v>
-      </c>
+      <c r="D222" s="12">
+        <v>1</v>
+      </c>
+      <c r="E222" s="21"/>
       <c r="F222" s="21"/>
       <c r="G222" s="24" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="H222" s="22"/>
       <c r="I222" s="8"/>
       <c r="J222" s="10"/>
       <c r="K222" s="11"/>
-      <c r="L222" s="11">
+      <c r="M222" s="11">
         <f>SUM(K223)</f>
-        <v>720</v>
-      </c>
-      <c r="M222" s="13"/>
+        <v>1440</v>
+      </c>
       <c r="N222" s="13"/>
       <c r="O222" s="13"/>
     </row>
@@ -8139,15 +8259,16 @@
       <c r="B223" s="12"/>
       <c r="C223" s="12"/>
       <c r="D223" s="12"/>
-      <c r="F223" s="12">
-        <v>1</v>
-      </c>
+      <c r="E223" s="12">
+        <v>1</v>
+      </c>
+      <c r="F223" s="21"/>
       <c r="G223" s="24" t="s">
         <v>5</v>
       </c>
       <c r="H223" s="22">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I223" s="8" t="s">
         <v>76</v>
@@ -8157,36 +8278,35 @@
       </c>
       <c r="K223" s="11">
         <f>H223*J223</f>
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="L223" s="13"/>
       <c r="M223" s="13"/>
       <c r="N223" s="13"/>
       <c r="O223" s="13"/>
       <c r="Q223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="2:17" ht="28.5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B224" s="12"/>
       <c r="C224" s="12"/>
-      <c r="D224" s="12"/>
-      <c r="E224" s="21">
+      <c r="D224" s="12">
         <v>2</v>
       </c>
+      <c r="E224" s="21"/>
       <c r="F224" s="21"/>
       <c r="G224" s="24" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="H224" s="22"/>
       <c r="I224" s="8"/>
       <c r="J224" s="10"/>
       <c r="K224" s="11"/>
-      <c r="L224" s="11">
+      <c r="M224" s="11">
         <f>SUM(K225)</f>
-        <v>720</v>
-      </c>
-      <c r="M224" s="13"/>
+        <v>2160</v>
+      </c>
       <c r="N224" s="13"/>
       <c r="O224" s="13"/>
     </row>
@@ -8194,16 +8314,16 @@
       <c r="B225" s="12"/>
       <c r="C225" s="12"/>
       <c r="D225" s="12"/>
-      <c r="E225" s="21"/>
-      <c r="F225" s="12">
-        <v>1</v>
-      </c>
+      <c r="E225" s="12">
+        <v>1</v>
+      </c>
+      <c r="F225" s="21"/>
       <c r="G225" s="24" t="s">
         <v>5</v>
       </c>
       <c r="H225" s="22">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I225" s="8" t="s">
         <v>76</v>
@@ -8213,131 +8333,132 @@
       </c>
       <c r="K225" s="11">
         <f>H225*J225</f>
-        <v>720</v>
+        <v>2160</v>
       </c>
       <c r="L225" s="13"/>
       <c r="M225" s="13"/>
       <c r="N225" s="13"/>
       <c r="O225" s="13"/>
       <c r="Q225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="2:17" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B226" s="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B226" s="12">
+        <v>7</v>
+      </c>
       <c r="C226" s="12"/>
       <c r="D226" s="12"/>
-      <c r="E226" s="21">
-        <v>3</v>
-      </c>
+      <c r="E226" s="12"/>
       <c r="F226" s="21"/>
-      <c r="G226" s="24" t="s">
-        <v>192</v>
+      <c r="G226" s="23" t="s">
+        <v>174</v>
       </c>
       <c r="H226" s="22"/>
       <c r="I226" s="8"/>
       <c r="J226" s="10"/>
       <c r="K226" s="11"/>
-      <c r="L226" s="11">
-        <f>SUM(K227)</f>
-        <v>2160</v>
-      </c>
+      <c r="L226" s="13"/>
       <c r="M226" s="13"/>
       <c r="N226" s="13"/>
-      <c r="O226" s="13"/>
+      <c r="O226" s="13">
+        <f>SUM(N227:N228)</f>
+        <v>3600</v>
+      </c>
     </row>
     <row r="227" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B227" s="12"/>
-      <c r="C227" s="12"/>
+      <c r="C227" s="12">
+        <v>1</v>
+      </c>
       <c r="D227" s="12"/>
-      <c r="E227" s="21"/>
-      <c r="F227" s="12">
-        <v>1</v>
-      </c>
+      <c r="E227" s="12"/>
+      <c r="F227" s="21"/>
       <c r="G227" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H227" s="22">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="I227" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J227" s="10">
-        <v>90</v>
-      </c>
-      <c r="K227" s="11">
-        <f>H227*J227</f>
-        <v>2160</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="H227" s="22"/>
+      <c r="I227" s="8"/>
+      <c r="J227" s="10"/>
+      <c r="K227" s="11"/>
       <c r="L227" s="13"/>
       <c r="M227" s="13"/>
-      <c r="N227" s="13"/>
+      <c r="N227" s="11">
+        <f>SUM(M228)</f>
+        <v>3600</v>
+      </c>
       <c r="O227" s="13"/>
-      <c r="Q227">
-        <v>3</v>
-      </c>
     </row>
     <row r="228" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B228" s="12"/>
-      <c r="C228" s="12">
-        <v>5</v>
-      </c>
-      <c r="D228" s="12"/>
+      <c r="C228" s="12"/>
+      <c r="D228" s="12">
+        <v>1</v>
+      </c>
       <c r="E228" s="12"/>
       <c r="F228" s="21"/>
-      <c r="G228" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="H228" s="22"/>
-      <c r="I228" s="8"/>
-      <c r="J228" s="10"/>
+      <c r="G228" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H228" s="22">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="I228" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J228" s="10">
+        <v>90</v>
+      </c>
       <c r="K228" s="11"/>
       <c r="L228" s="13"/>
-      <c r="M228" s="13"/>
-      <c r="N228" s="13">
-        <f>SUM(M229:M231)</f>
+      <c r="M228" s="11">
+        <f>H228*J228</f>
         <v>3600</v>
       </c>
+      <c r="N228" s="13"/>
       <c r="O228" s="13"/>
+      <c r="Q228">
+        <v>5</v>
+      </c>
     </row>
     <row r="229" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B229" s="12"/>
+      <c r="B229" s="12">
+        <v>8</v>
+      </c>
       <c r="C229" s="12"/>
-      <c r="D229" s="12">
-        <v>1</v>
-      </c>
-      <c r="E229" s="21"/>
+      <c r="D229" s="12"/>
+      <c r="E229" s="12"/>
       <c r="F229" s="21"/>
       <c r="G229" s="24" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="H229" s="22"/>
       <c r="I229" s="8"/>
       <c r="J229" s="10"/>
       <c r="K229" s="11"/>
-      <c r="M229" s="11">
-        <f>SUM(K230)</f>
-        <v>1440</v>
-      </c>
+      <c r="L229" s="13"/>
+      <c r="M229" s="13"/>
       <c r="N229" s="13"/>
-      <c r="O229" s="13"/>
+      <c r="O229" s="11">
+        <f>SUM(N230)</f>
+        <v>3600</v>
+      </c>
     </row>
     <row r="230" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B230" s="12"/>
-      <c r="C230" s="12"/>
+      <c r="C230" s="12">
+        <v>1</v>
+      </c>
       <c r="D230" s="12"/>
-      <c r="E230" s="12">
-        <v>1</v>
-      </c>
+      <c r="E230" s="12"/>
       <c r="F230" s="21"/>
       <c r="G230" s="24" t="s">
         <v>5</v>
       </c>
       <c r="H230" s="22">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I230" s="8" t="s">
         <v>76</v>
@@ -8345,106 +8466,107 @@
       <c r="J230" s="10">
         <v>90</v>
       </c>
-      <c r="K230" s="11">
-        <f>H230*J230</f>
-        <v>1440</v>
-      </c>
+      <c r="K230" s="11"/>
       <c r="L230" s="13"/>
       <c r="M230" s="13"/>
-      <c r="N230" s="13"/>
+      <c r="N230" s="11">
+        <f>H230*J230</f>
+        <v>3600</v>
+      </c>
       <c r="O230" s="13"/>
       <c r="Q230">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B231" s="12"/>
+      <c r="B231" s="12">
+        <v>9</v>
+      </c>
       <c r="C231" s="12"/>
-      <c r="D231" s="12">
-        <v>2</v>
-      </c>
-      <c r="E231" s="21"/>
+      <c r="D231" s="12"/>
+      <c r="E231" s="12"/>
       <c r="F231" s="21"/>
-      <c r="G231" s="24" t="s">
-        <v>189</v>
+      <c r="G231" s="23" t="s">
+        <v>171</v>
       </c>
       <c r="H231" s="22"/>
       <c r="I231" s="8"/>
       <c r="J231" s="10"/>
       <c r="K231" s="11"/>
-      <c r="M231" s="11">
-        <f>SUM(K232)</f>
-        <v>2160</v>
-      </c>
+      <c r="L231" s="13"/>
+      <c r="M231" s="13"/>
       <c r="N231" s="13"/>
-      <c r="O231" s="13"/>
+      <c r="O231" s="13">
+        <f>SUM(N232:N236)</f>
+        <v>2880</v>
+      </c>
     </row>
     <row r="232" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B232" s="12"/>
-      <c r="C232" s="12"/>
+      <c r="C232" s="12">
+        <v>1</v>
+      </c>
       <c r="D232" s="12"/>
-      <c r="E232" s="12">
-        <v>1</v>
-      </c>
+      <c r="E232" s="12"/>
       <c r="F232" s="21"/>
       <c r="G232" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H232" s="22">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="I232" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J232" s="10">
-        <v>90</v>
-      </c>
-      <c r="K232" s="11">
-        <f>H232*J232</f>
-        <v>2160</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="H232" s="22"/>
+      <c r="I232" s="8"/>
+      <c r="J232" s="10"/>
+      <c r="K232" s="11"/>
       <c r="L232" s="13"/>
       <c r="M232" s="13"/>
-      <c r="N232" s="13"/>
+      <c r="N232" s="11">
+        <f>SUM(M233)</f>
+        <v>1440</v>
+      </c>
       <c r="O232" s="13"/>
-      <c r="Q232">
-        <v>3</v>
-      </c>
     </row>
     <row r="233" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B233" s="12">
-        <v>7</v>
-      </c>
+      <c r="B233" s="12"/>
       <c r="C233" s="12"/>
-      <c r="D233" s="12"/>
+      <c r="D233" s="12">
+        <v>1</v>
+      </c>
       <c r="E233" s="12"/>
       <c r="F233" s="21"/>
-      <c r="G233" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="H233" s="22"/>
-      <c r="I233" s="8"/>
-      <c r="J233" s="10"/>
+      <c r="G233" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H233" s="22">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="I233" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J233" s="10">
+        <v>90</v>
+      </c>
       <c r="K233" s="11"/>
       <c r="L233" s="13"/>
-      <c r="M233" s="13"/>
+      <c r="M233" s="11">
+        <f>H233*J233</f>
+        <v>1440</v>
+      </c>
       <c r="N233" s="13"/>
-      <c r="O233" s="13">
-        <f>SUM(N234:N241)</f>
-        <v>11520</v>
+      <c r="O233" s="13"/>
+      <c r="Q233">
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B234" s="12"/>
       <c r="C234" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D234" s="12"/>
       <c r="E234" s="12"/>
       <c r="F234" s="21"/>
       <c r="G234" s="24" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="H234" s="22"/>
       <c r="I234" s="8"/>
@@ -8454,7 +8576,7 @@
       <c r="M234" s="13"/>
       <c r="N234" s="11">
         <f>SUM(M235)</f>
-        <v>3600</v>
+        <v>720</v>
       </c>
       <c r="O234" s="13"/>
     </row>
@@ -8470,8 +8592,8 @@
         <v>5</v>
       </c>
       <c r="H235" s="22">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <f>Q235*8</f>
+        <v>8</v>
       </c>
       <c r="I235" s="8" t="s">
         <v>76</v>
@@ -8483,23 +8605,24 @@
       <c r="L235" s="13"/>
       <c r="M235" s="11">
         <f>H235*J235</f>
-        <v>3600</v>
+        <v>720</v>
       </c>
       <c r="N235" s="13"/>
       <c r="O235" s="13"/>
       <c r="Q235">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B236" s="12"/>
       <c r="C236" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D236" s="12"/>
       <c r="E236" s="12"/>
+      <c r="F236" s="21"/>
       <c r="G236" s="24" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="H236" s="22"/>
       <c r="I236" s="8"/>
@@ -8509,7 +8632,7 @@
       <c r="M236" s="13"/>
       <c r="N236" s="11">
         <f>SUM(M237)</f>
-        <v>3600</v>
+        <v>720</v>
       </c>
       <c r="O236" s="13"/>
     </row>
@@ -8526,7 +8649,7 @@
       </c>
       <c r="H237" s="22">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="I237" s="8" t="s">
         <v>76</v>
@@ -8538,24 +8661,24 @@
       <c r="L237" s="13"/>
       <c r="M237" s="11">
         <f>H237*J237</f>
-        <v>3600</v>
+        <v>720</v>
       </c>
       <c r="N237" s="13"/>
       <c r="O237" s="13"/>
       <c r="Q237">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B238" s="12"/>
-      <c r="C238" s="12">
-        <v>3</v>
-      </c>
+      <c r="B238" s="12">
+        <v>10</v>
+      </c>
+      <c r="C238" s="12"/>
       <c r="D238" s="12"/>
       <c r="E238" s="12"/>
       <c r="F238" s="21"/>
       <c r="G238" s="24" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="H238" s="22"/>
       <c r="I238" s="8"/>
@@ -8563,26 +8686,25 @@
       <c r="K238" s="11"/>
       <c r="L238" s="13"/>
       <c r="M238" s="13"/>
-      <c r="N238" s="11">
-        <f>SUM(M239)</f>
-        <v>2160</v>
-      </c>
-      <c r="O238" s="13"/>
+      <c r="O238" s="11">
+        <f>SUM(N239)</f>
+        <v>720</v>
+      </c>
     </row>
     <row r="239" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B239" s="12"/>
-      <c r="C239" s="12"/>
-      <c r="D239" s="12">
-        <v>1</v>
-      </c>
+      <c r="C239" s="12">
+        <v>1</v>
+      </c>
+      <c r="D239" s="12"/>
       <c r="E239" s="12"/>
       <c r="F239" s="21"/>
       <c r="G239" s="24" t="s">
         <v>5</v>
       </c>
       <c r="H239" s="22">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <f>Q239*8</f>
+        <v>8</v>
       </c>
       <c r="I239" s="8" t="s">
         <v>76</v>
@@ -8592,26 +8714,26 @@
       </c>
       <c r="K239" s="11"/>
       <c r="L239" s="13"/>
-      <c r="M239" s="11">
+      <c r="M239" s="13"/>
+      <c r="N239" s="11">
         <f>H239*J239</f>
-        <v>2160</v>
-      </c>
-      <c r="N239" s="13"/>
+        <v>720</v>
+      </c>
       <c r="O239" s="13"/>
       <c r="Q239">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B240" s="12"/>
-      <c r="C240" s="12">
-        <v>4</v>
-      </c>
+      <c r="B240" s="12">
+        <v>11</v>
+      </c>
+      <c r="C240" s="12"/>
       <c r="D240" s="12"/>
       <c r="E240" s="12"/>
       <c r="F240" s="21"/>
       <c r="G240" s="24" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="H240" s="22"/>
       <c r="I240" s="8"/>
@@ -8619,26 +8741,26 @@
       <c r="K240" s="11"/>
       <c r="L240" s="13"/>
       <c r="M240" s="13"/>
-      <c r="N240" s="11">
-        <f>SUM(M241)</f>
-        <v>2160</v>
-      </c>
-      <c r="O240" s="13"/>
+      <c r="N240" s="13"/>
+      <c r="O240" s="11">
+        <f>SUM(N241)</f>
+        <v>633.6</v>
+      </c>
     </row>
     <row r="241" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B241" s="12"/>
-      <c r="C241" s="12"/>
-      <c r="D241" s="12">
-        <v>1</v>
-      </c>
+      <c r="C241" s="12">
+        <v>1</v>
+      </c>
+      <c r="D241" s="12"/>
       <c r="E241" s="12"/>
       <c r="F241" s="21"/>
       <c r="G241" s="24" t="s">
         <v>5</v>
       </c>
       <c r="H241" s="22">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <f>Q241*8</f>
+        <v>7.04</v>
       </c>
       <c r="I241" s="8" t="s">
         <v>76</v>
@@ -8648,479 +8770,121 @@
       </c>
       <c r="K241" s="11"/>
       <c r="L241" s="13"/>
-      <c r="M241" s="11">
+      <c r="M241" s="13"/>
+      <c r="N241" s="11">
         <f>H241*J241</f>
-        <v>2160</v>
-      </c>
-      <c r="N241" s="13"/>
+        <v>633.6</v>
+      </c>
       <c r="O241" s="13"/>
       <c r="Q241">
-        <v>3</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="242" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B242" s="12">
-        <v>8</v>
-      </c>
-      <c r="C242" s="12"/>
-      <c r="D242" s="12"/>
-      <c r="E242" s="12"/>
-      <c r="F242" s="21"/>
-      <c r="G242" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="H242" s="22"/>
-      <c r="I242" s="8"/>
-      <c r="J242" s="10"/>
-      <c r="K242" s="11"/>
-      <c r="L242" s="13"/>
-      <c r="M242" s="13"/>
-      <c r="N242" s="13"/>
-      <c r="O242" s="11">
-        <f>SUM(N243)</f>
-        <v>3600</v>
+      <c r="N242" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O242" s="26">
+        <f>SUM(O130:O241)</f>
+        <v>70833.600000000006</v>
       </c>
     </row>
     <row r="243" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B243" s="12"/>
-      <c r="C243" s="12">
-        <v>1</v>
-      </c>
-      <c r="D243" s="12"/>
-      <c r="E243" s="12"/>
-      <c r="F243" s="21"/>
-      <c r="G243" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H243" s="22">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="I243" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J243" s="10">
-        <v>90</v>
-      </c>
-      <c r="K243" s="11"/>
-      <c r="L243" s="13"/>
-      <c r="M243" s="13"/>
-      <c r="N243" s="11">
-        <f>H243*J243</f>
-        <v>3600</v>
-      </c>
-      <c r="O243" s="13"/>
-      <c r="Q243">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="244" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B244" s="12">
-        <v>9</v>
-      </c>
-      <c r="C244" s="12"/>
-      <c r="D244" s="12"/>
-      <c r="E244" s="12"/>
-      <c r="F244" s="21"/>
-      <c r="G244" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="H244" s="22"/>
-      <c r="I244" s="8"/>
-      <c r="J244" s="10"/>
-      <c r="K244" s="11"/>
-      <c r="L244" s="13"/>
-      <c r="M244" s="13"/>
-      <c r="N244" s="13"/>
-      <c r="O244" s="13">
-        <f>SUM(N245:N249)</f>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="245" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B245" s="12"/>
-      <c r="C245" s="12">
-        <v>1</v>
-      </c>
-      <c r="D245" s="12"/>
-      <c r="E245" s="12"/>
-      <c r="F245" s="21"/>
-      <c r="G245" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="H245" s="22"/>
-      <c r="I245" s="8"/>
-      <c r="J245" s="10"/>
-      <c r="K245" s="11"/>
-      <c r="L245" s="13"/>
-      <c r="M245" s="13"/>
-      <c r="N245" s="11">
-        <f>SUM(M246)</f>
-        <v>1440</v>
-      </c>
-      <c r="O245" s="13"/>
-    </row>
-    <row r="246" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B246" s="12"/>
-      <c r="C246" s="12"/>
-      <c r="D246" s="12">
-        <v>1</v>
-      </c>
-      <c r="E246" s="12"/>
-      <c r="F246" s="21"/>
-      <c r="G246" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H246" s="22">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="I246" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J246" s="10">
-        <v>90</v>
-      </c>
-      <c r="K246" s="11"/>
-      <c r="L246" s="13"/>
-      <c r="M246" s="11">
-        <f>H246*J246</f>
-        <v>1440</v>
-      </c>
-      <c r="N246" s="13"/>
-      <c r="O246" s="13"/>
-      <c r="Q246">
-        <v>2</v>
-      </c>
+      <c r="N243" s="5"/>
+    </row>
+    <row r="246" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="C246" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="D246" s="44"/>
+      <c r="E246" s="44"/>
+      <c r="F246" s="44"/>
+      <c r="G246" s="44"/>
+      <c r="H246" s="44"/>
     </row>
     <row r="247" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B247" s="12"/>
-      <c r="C247" s="12">
-        <v>2</v>
-      </c>
-      <c r="D247" s="12"/>
-      <c r="E247" s="12"/>
-      <c r="F247" s="21"/>
-      <c r="G247" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="H247" s="22"/>
-      <c r="I247" s="8"/>
-      <c r="J247" s="10"/>
-      <c r="K247" s="11"/>
-      <c r="L247" s="13"/>
-      <c r="M247" s="13"/>
-      <c r="N247" s="11">
-        <f>SUM(M248)</f>
-        <v>720</v>
-      </c>
-      <c r="O247" s="13"/>
+      <c r="C247" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D247" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="E247" s="41"/>
+      <c r="F247" s="41"/>
+      <c r="G247" s="42"/>
+      <c r="H247" s="21" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="248" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B248" s="12"/>
-      <c r="C248" s="12"/>
-      <c r="D248" s="12">
-        <v>1</v>
-      </c>
-      <c r="E248" s="12"/>
-      <c r="F248" s="21"/>
-      <c r="G248" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H248" s="22">
-        <f>Q248*8</f>
-        <v>8</v>
-      </c>
-      <c r="I248" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J248" s="10">
-        <v>90</v>
-      </c>
-      <c r="K248" s="11"/>
-      <c r="L248" s="13"/>
-      <c r="M248" s="11">
-        <f>H248*J248</f>
-        <v>720</v>
-      </c>
-      <c r="N248" s="13"/>
-      <c r="O248" s="13"/>
-      <c r="Q248">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B249" s="12"/>
-      <c r="C249" s="12">
-        <v>3</v>
-      </c>
-      <c r="D249" s="12"/>
-      <c r="E249" s="12"/>
-      <c r="F249" s="21"/>
-      <c r="G249" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="H249" s="22"/>
-      <c r="I249" s="8"/>
-      <c r="J249" s="10"/>
-      <c r="K249" s="11"/>
-      <c r="L249" s="13"/>
-      <c r="M249" s="13"/>
-      <c r="N249" s="11">
-        <f>SUM(M250)</f>
-        <v>720</v>
-      </c>
-      <c r="O249" s="13"/>
-    </row>
-    <row r="250" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B250" s="12"/>
-      <c r="C250" s="12"/>
-      <c r="D250" s="12">
-        <v>1</v>
-      </c>
-      <c r="E250" s="12"/>
-      <c r="F250" s="21"/>
-      <c r="G250" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H250" s="22">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="I250" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J250" s="10">
-        <v>90</v>
-      </c>
-      <c r="K250" s="11"/>
-      <c r="L250" s="13"/>
-      <c r="M250" s="11">
-        <f>H250*J250</f>
-        <v>720</v>
-      </c>
-      <c r="N250" s="13"/>
-      <c r="O250" s="13"/>
-      <c r="Q250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B251" s="12">
-        <v>10</v>
-      </c>
-      <c r="C251" s="12"/>
-      <c r="D251" s="12"/>
-      <c r="E251" s="12"/>
-      <c r="F251" s="21"/>
-      <c r="G251" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="H251" s="22"/>
-      <c r="I251" s="8"/>
-      <c r="J251" s="10"/>
-      <c r="K251" s="11"/>
-      <c r="L251" s="13"/>
-      <c r="M251" s="13"/>
-      <c r="O251" s="11">
-        <f>SUM(N252)</f>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="252" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B252" s="12"/>
-      <c r="C252" s="12">
-        <v>1</v>
-      </c>
-      <c r="D252" s="12"/>
-      <c r="E252" s="12"/>
-      <c r="F252" s="21"/>
-      <c r="G252" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H252" s="22">
-        <f>Q252*8</f>
-        <v>8</v>
-      </c>
-      <c r="I252" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J252" s="10">
-        <v>90</v>
-      </c>
-      <c r="K252" s="11"/>
-      <c r="L252" s="13"/>
-      <c r="M252" s="13"/>
-      <c r="N252" s="11">
-        <f>H252*J252</f>
-        <v>720</v>
-      </c>
-      <c r="O252" s="13"/>
-      <c r="Q252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B253" s="12">
-        <v>11</v>
-      </c>
-      <c r="C253" s="12"/>
-      <c r="D253" s="12"/>
-      <c r="E253" s="12"/>
-      <c r="F253" s="21"/>
-      <c r="G253" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="H253" s="22"/>
-      <c r="I253" s="8"/>
-      <c r="J253" s="10"/>
-      <c r="K253" s="11"/>
-      <c r="L253" s="13"/>
-      <c r="M253" s="13"/>
-      <c r="N253" s="13"/>
-      <c r="O253" s="11">
-        <f>SUM(N254)</f>
-        <v>633.6</v>
-      </c>
-    </row>
-    <row r="254" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B254" s="12"/>
-      <c r="C254" s="12">
-        <v>1</v>
-      </c>
-      <c r="D254" s="12"/>
-      <c r="E254" s="12"/>
-      <c r="F254" s="21"/>
-      <c r="G254" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H254" s="22">
-        <f>Q254*8</f>
-        <v>7.04</v>
-      </c>
-      <c r="I254" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J254" s="10">
-        <v>90</v>
-      </c>
-      <c r="K254" s="11"/>
-      <c r="L254" s="13"/>
-      <c r="M254" s="13"/>
-      <c r="N254" s="11">
-        <f>H254*J254</f>
-        <v>633.6</v>
-      </c>
-      <c r="O254" s="13"/>
-      <c r="Q254">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="255" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="N255" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="O255" s="26">
-        <f>SUM(O127:O254)</f>
-        <v>88027.200000000012</v>
-      </c>
-    </row>
-    <row r="256" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="N256" s="5"/>
-    </row>
-    <row r="259" spans="3:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="C259" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="D259" s="40"/>
-      <c r="E259" s="40"/>
-      <c r="F259" s="40"/>
-      <c r="G259" s="40"/>
-      <c r="H259" s="40"/>
-    </row>
-    <row r="260" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C260" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D260" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="E260" s="42"/>
-      <c r="F260" s="42"/>
-      <c r="G260" s="43"/>
-      <c r="H260" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="261" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C261" s="21">
-        <v>1</v>
-      </c>
-      <c r="D261" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="E261" s="42"/>
-      <c r="F261" s="42"/>
-      <c r="G261" s="43"/>
-      <c r="H261" s="27">
+      <c r="C248" s="21">
+        <v>1</v>
+      </c>
+      <c r="D248" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="E248" s="41"/>
+      <c r="F248" s="41"/>
+      <c r="G248" s="42"/>
+      <c r="H248" s="27">
         <f>L22</f>
         <v>92880</v>
       </c>
     </row>
-    <row r="262" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C262" s="21">
+    <row r="249" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C249" s="21">
         <v>2</v>
       </c>
-      <c r="D262" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="E262" s="44"/>
-      <c r="F262" s="44"/>
-      <c r="G262" s="44"/>
-      <c r="H262" s="27">
-        <f>P116</f>
-        <v>114768</v>
-      </c>
-    </row>
-    <row r="263" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C263" s="21">
+      <c r="D249" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="E249" s="45"/>
+      <c r="F249" s="45"/>
+      <c r="G249" s="45"/>
+      <c r="H249" s="27">
+        <f>P120</f>
+        <v>168048</v>
+      </c>
+    </row>
+    <row r="250" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C250" s="21">
         <v>3</v>
       </c>
-      <c r="D263" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="E263" s="44"/>
-      <c r="F263" s="44"/>
-      <c r="G263" s="44"/>
-      <c r="H263" s="27">
-        <f>O255</f>
-        <v>88027.200000000012</v>
-      </c>
-    </row>
-    <row r="264" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C264" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="D264" s="42"/>
-      <c r="E264" s="42"/>
-      <c r="F264" s="42"/>
-      <c r="G264" s="43"/>
-      <c r="H264" s="27">
-        <f>SUM(H261:H263)</f>
-        <v>295675.2</v>
+      <c r="D250" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E250" s="45"/>
+      <c r="F250" s="45"/>
+      <c r="G250" s="45"/>
+      <c r="H250" s="27">
+        <f>O242</f>
+        <v>70833.600000000006</v>
+      </c>
+    </row>
+    <row r="251" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C251" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="D251" s="41"/>
+      <c r="E251" s="41"/>
+      <c r="F251" s="41"/>
+      <c r="G251" s="42"/>
+      <c r="H251" s="27">
+        <f>SUM(H248:H250)</f>
+        <v>331761.59999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C264:G264"/>
+    <mergeCell ref="C251:G251"/>
     <mergeCell ref="E4:L4"/>
     <mergeCell ref="A36:P36"/>
-    <mergeCell ref="B125:O125"/>
-    <mergeCell ref="C259:H259"/>
-    <mergeCell ref="D260:G260"/>
-    <mergeCell ref="D261:G261"/>
-    <mergeCell ref="D262:G262"/>
-    <mergeCell ref="D263:G263"/>
+    <mergeCell ref="B128:O128"/>
+    <mergeCell ref="C246:H246"/>
+    <mergeCell ref="D247:G247"/>
+    <mergeCell ref="D248:G248"/>
+    <mergeCell ref="D249:G249"/>
+    <mergeCell ref="D250:G250"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9130,55 +8894,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89511EFB-42D6-4482-B36A-E1188BB76919}">
-  <dimension ref="B2:H36"/>
+  <dimension ref="B2:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
     <col min="5" max="5" width="36.7109375" customWidth="1"/>
     <col min="6" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="26.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="D2" t="s">
         <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="H2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="F3" s="27">
-        <f>SUM(E4:E6)</f>
-        <v>114768</v>
+        <f>SUM(E4:E7)</f>
+        <v>168048</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28">
-        <f>F3+F3*$E$26</f>
-        <v>220319.97937939357</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+        <f>F3+F3*$E$27</f>
+        <v>307292.95706793654</v>
+      </c>
+      <c r="I3" s="28">
+        <f>SUM(G4:G7)</f>
+        <v>307292.9570679366</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>1</v>
       </c>
@@ -9187,277 +8956,297 @@
       </c>
       <c r="E4" s="27">
         <f>Costes!P38</f>
-        <v>81648</v>
+        <v>122688</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="28">
-        <f>E4+E4*$E$26</f>
-        <v>156739.55873038416</v>
+        <f>E4+E4*$E$27</f>
+        <v>224347.55734522876</v>
       </c>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E5" s="27">
-        <f>Costes!P95</f>
-        <v>22320</v>
+        <f>Costes!P99</f>
+        <v>1440</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28">
-        <f>E5+E5*$E$26</f>
-        <v>42847.674785202013</v>
+        <f>E5+E5*$E$27</f>
+        <v>2633.1872927843751</v>
       </c>
       <c r="H5" s="28"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="E6" s="27">
-        <f>Costes!P109</f>
-        <v>10800</v>
+        <f>Costes!P104</f>
+        <v>36000</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="28">
-        <f>E6+E6*$E$26</f>
-        <v>20732.745863807424</v>
+        <f>E6+E6*$E$27</f>
+        <v>65829.682319609376</v>
       </c>
       <c r="H6" s="28"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>3</v>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>220</v>
       </c>
-      <c r="F7" s="27">
-        <v>88027.200000000012</v>
-      </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28">
-        <f>F7+F7*$E$26</f>
-        <v>168985.70062060643</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="28">
-        <f>SUM(F3:F7)</f>
-        <v>202795.2</v>
+      <c r="E7" s="27">
+        <f>Costes!P112</f>
+        <v>7920</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28">
+        <f>E7+E7*$E$27</f>
+        <v>14482.530110314063</v>
+      </c>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="27">
+        <f>Costes!H250</f>
+        <v>70833.600000000006</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28">
-        <f>SUM(H3:H7)</f>
-        <v>389305.68</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="2">
-        <v>295675.2</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="46" t="s">
-        <v>236</v>
-      </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="29">
-        <f>F13/12</f>
-        <v>24639.600000000002</v>
-      </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="28"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="E16" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="35">
-        <f>E16*$F$14</f>
-        <v>12319.800000000001</v>
-      </c>
-      <c r="G16" s="5"/>
+        <f>F8+F8*$E$27</f>
+        <v>129526.48293206343</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F9" s="28">
+        <f>SUM(F3:F8)</f>
+        <v>238881.6</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28">
+        <f>SUM(H3:H8)</f>
+        <v>436819.43999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="2">
+        <f>Costes!H251</f>
+        <v>331761.59999999998</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="29">
+        <f>F14/12</f>
+        <v>27646.799999999999</v>
+      </c>
+      <c r="G15" s="29"/>
+      <c r="H15" s="28"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D17" s="33" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="E17" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="35">
+        <f>E17*$F$15</f>
+        <v>13823.4</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" s="34">
         <v>0.3</v>
       </c>
-      <c r="F17" s="35">
-        <f>E17*$F$14</f>
-        <v>7391.88</v>
-      </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="36"/>
-      <c r="E18" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="F18" s="38">
-        <f>SUM(F16:F17)</f>
-        <v>19711.68</v>
+      <c r="F18" s="35">
+        <f>E18*$F$15</f>
+        <v>8294.0399999999991</v>
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>234</v>
-      </c>
-      <c r="E22" s="2">
-        <f>Costes!H261</f>
-        <v>92880</v>
-      </c>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="36"/>
+      <c r="E19" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="38">
+        <f>SUM(F17:F18)</f>
+        <v>22117.439999999999</v>
+      </c>
+      <c r="G19" s="5"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>225</v>
-      </c>
-      <c r="E23" s="28">
-        <f>0.25*F13</f>
-        <v>73918.8</v>
+        <v>217</v>
+      </c>
+      <c r="E23" s="2">
+        <f>Costes!H248</f>
+        <v>92880</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>232</v>
-      </c>
-      <c r="E24" s="5">
-        <f>F18</f>
-        <v>19711.68</v>
+        <v>208</v>
+      </c>
+      <c r="E24" s="28">
+        <f>0.25*F14</f>
+        <v>82940.399999999994</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>231</v>
-      </c>
-      <c r="E25" s="28">
-        <f>SUM(E22:E24)</f>
-        <v>186510.47999999998</v>
+        <v>215</v>
+      </c>
+      <c r="E25" s="5">
+        <f>F19</f>
+        <v>22117.439999999999</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>233</v>
-      </c>
-      <c r="E26" s="1">
-        <f>E25/F8</f>
-        <v>0.91969869109328017</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>221</v>
-      </c>
-      <c r="D30" t="s">
+        <v>214</v>
+      </c>
+      <c r="E26" s="28">
+        <f>SUM(E23:E25)</f>
+        <v>197937.84</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E27" s="1">
+        <f>E26/F9</f>
+        <v>0.82860228665581603</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>204</v>
+      </c>
+      <c r="D31" t="s">
         <v>71</v>
       </c>
-      <c r="F30" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>216</v>
-      </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28">
+      <c r="F31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>199</v>
+      </c>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28">
         <v>220319.97937939357</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="28">
-        <v>156739.55873038416</v>
-      </c>
-      <c r="F32" s="28"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>224</v>
+        <v>95</v>
       </c>
       <c r="E33" s="28">
-        <v>42847.674785202013</v>
+        <v>156739.55873038416</v>
       </c>
       <c r="F33" s="28"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>207</v>
+      </c>
+      <c r="E34" s="28">
+        <v>42847.674785202013</v>
+      </c>
+      <c r="F34" s="28"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C35">
         <v>3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>237</v>
-      </c>
-      <c r="E34" s="28">
-        <v>20732.745863807424</v>
-      </c>
-      <c r="F34" s="28"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>2</v>
       </c>
       <c r="D35" t="s">
         <v>220</v>
       </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28">
-        <v>168985.70062060643</v>
-      </c>
+      <c r="E35" s="28">
+        <v>20732.745863807424</v>
+      </c>
+      <c r="F35" s="28"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>203</v>
+      </c>
       <c r="E36" s="28"/>
       <c r="F36" s="28">
+        <v>168985.70062060643</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E37" s="28"/>
+      <c r="F37" s="28">
         <v>389305.68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
